--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.896847445558928</v>
+        <v>4.896847445558894</v>
       </c>
       <c r="D2">
-        <v>6.459808266176152</v>
+        <v>6.459808266176285</v>
       </c>
       <c r="E2">
-        <v>45.56478158732703</v>
+        <v>45.56478158732689</v>
       </c>
       <c r="F2">
-        <v>40.43270434201315</v>
+        <v>40.43270434201288</v>
       </c>
       <c r="G2">
-        <v>32.46082812497701</v>
+        <v>32.46082812497681</v>
       </c>
       <c r="H2">
-        <v>29.94518894995479</v>
+        <v>29.94518894995462</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>35.11636042134499</v>
+        <v>35.11636042134488</v>
       </c>
       <c r="L2">
-        <v>108.1896641735349</v>
+        <v>108.1896641735346</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.521511802050096</v>
+        <v>4.521511802050113</v>
       </c>
       <c r="D3">
-        <v>5.318153925126149</v>
+        <v>5.318153925126015</v>
       </c>
       <c r="E3">
-        <v>40.88408797429655</v>
+        <v>40.88408797429651</v>
       </c>
       <c r="F3">
-        <v>34.38777845424601</v>
+        <v>34.38777845424575</v>
       </c>
       <c r="G3">
-        <v>27.40573173161563</v>
+        <v>27.40573173161539</v>
       </c>
       <c r="H3">
-        <v>25.13698481617622</v>
+        <v>25.13698481617602</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>31.46293405955353</v>
+        <v>31.46293405955344</v>
       </c>
       <c r="L3">
-        <v>97.83727222135047</v>
+        <v>97.83727222135028</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.289802626787066</v>
+        <v>4.289802626787044</v>
       </c>
       <c r="D4">
         <v>4.714029403673201</v>
       </c>
       <c r="E4">
-        <v>38.23273262219461</v>
+        <v>38.23273262219446</v>
       </c>
       <c r="F4">
-        <v>31.12573113789912</v>
+        <v>31.1257311378988</v>
       </c>
       <c r="G4">
-        <v>24.67970052908993</v>
+        <v>24.67970052908966</v>
       </c>
       <c r="H4">
-        <v>22.55075940802768</v>
+        <v>22.55075940802739</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.40130592094595</v>
+        <v>29.40130592094586</v>
       </c>
       <c r="L4">
-        <v>91.83945730176488</v>
+        <v>91.83945730176458</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.200195676878237</v>
+        <v>4.200195676878268</v>
       </c>
       <c r="D5">
-        <v>4.482447927260618</v>
+        <v>4.482447927260617</v>
       </c>
       <c r="E5">
-        <v>37.17751190367775</v>
+        <v>37.17751190367793</v>
       </c>
       <c r="F5">
-        <v>29.86628907120826</v>
+        <v>29.86628907120834</v>
       </c>
       <c r="G5">
-        <v>23.62688219171033</v>
+        <v>23.62688219171039</v>
       </c>
       <c r="H5">
-        <v>21.55324240504848</v>
+        <v>21.55324240504854</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.58227198883037</v>
+        <v>28.58227198883047</v>
       </c>
       <c r="L5">
-        <v>89.42926860500539</v>
+        <v>89.4292686050057</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.186037025238256</v>
+        <v>4.186037025238363</v>
       </c>
       <c r="D6">
         <v>4.444692779079914</v>
       </c>
       <c r="E6">
-        <v>37.00324530393574</v>
+        <v>37.00324530393564</v>
       </c>
       <c r="F6">
-        <v>29.66058187065447</v>
+        <v>29.66058187065444</v>
       </c>
       <c r="G6">
         <v>23.45488416042884</v>
       </c>
       <c r="H6">
-        <v>21.39035089604594</v>
+        <v>21.39035089604593</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.44708900957292</v>
+        <v>28.44708900957285</v>
       </c>
       <c r="L6">
-        <v>89.03005421132801</v>
+        <v>89.03005421132789</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.28851894662082</v>
+        <v>4.288518946620835</v>
       </c>
       <c r="D7">
-        <v>4.710855844434201</v>
+        <v>4.710855844434404</v>
       </c>
       <c r="E7">
-        <v>38.21842676188751</v>
+        <v>38.21842676188763</v>
       </c>
       <c r="F7">
-        <v>31.10850122669029</v>
+        <v>31.10850122669027</v>
       </c>
       <c r="G7">
-        <v>24.66529960272179</v>
+        <v>24.6652996027218</v>
       </c>
       <c r="H7">
-        <v>22.53710988168838</v>
+        <v>22.53710988168837</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.39019660342019</v>
+        <v>29.3901966034203</v>
       </c>
       <c r="L7">
-        <v>91.80686559127949</v>
+        <v>91.80686559127965</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D8">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E8">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F8">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G8">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H8">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L8">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D9">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E9">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F9">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G9">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H9">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L9">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D10">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E10">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F10">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G10">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H10">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L10">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D11">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E11">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F11">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G11">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H11">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L11">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D12">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E12">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F12">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G12">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H12">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L12">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D13">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E13">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F13">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G13">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H13">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L13">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D14">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E14">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F14">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G14">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H14">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L14">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D15">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E15">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F15">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G15">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H15">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L15">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D16">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E16">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F16">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G16">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H16">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L16">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D17">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E17">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F17">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G17">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H17">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L17">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D18">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E18">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F18">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G18">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H18">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L18">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D19">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E19">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F19">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G19">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H19">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L19">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D20">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E20">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F20">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G20">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H20">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L20">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D21">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E21">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F21">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G21">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H21">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L21">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D22">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E22">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F22">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G22">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H22">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L22">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D23">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E23">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F23">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G23">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H23">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L23">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D24">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E24">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F24">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G24">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H24">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L24">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.766964350521542</v>
+        <v>4.766964350521509</v>
       </c>
       <c r="D25">
-        <v>6.037673041523486</v>
+        <v>6.037673041523553</v>
       </c>
       <c r="E25">
-        <v>43.87801000769728</v>
+        <v>43.87801000769707</v>
       </c>
       <c r="F25">
-        <v>38.21769737164313</v>
+        <v>38.21769737164367</v>
       </c>
       <c r="G25">
-        <v>30.60745914801221</v>
+        <v>30.60745914801268</v>
       </c>
       <c r="H25">
-        <v>28.18049620955884</v>
+        <v>28.18049620955929</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.79767843615107</v>
+        <v>33.79767843615092</v>
       </c>
       <c r="L25">
-        <v>104.497329485126</v>
+        <v>104.4973294851259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.896847445558894</v>
+        <v>4.896847445558928</v>
       </c>
       <c r="D2">
-        <v>6.459808266176285</v>
+        <v>6.459808266176152</v>
       </c>
       <c r="E2">
-        <v>45.56478158732689</v>
+        <v>45.56478158732703</v>
       </c>
       <c r="F2">
-        <v>40.43270434201288</v>
+        <v>40.43270434201315</v>
       </c>
       <c r="G2">
-        <v>32.46082812497681</v>
+        <v>32.46082812497701</v>
       </c>
       <c r="H2">
-        <v>29.94518894995462</v>
+        <v>29.94518894995479</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>35.11636042134488</v>
+        <v>35.11636042134499</v>
       </c>
       <c r="L2">
-        <v>108.1896641735346</v>
+        <v>108.1896641735349</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.521511802050113</v>
+        <v>4.521511802050096</v>
       </c>
       <c r="D3">
-        <v>5.318153925126015</v>
+        <v>5.318153925126149</v>
       </c>
       <c r="E3">
-        <v>40.88408797429651</v>
+        <v>40.88408797429655</v>
       </c>
       <c r="F3">
-        <v>34.38777845424575</v>
+        <v>34.38777845424601</v>
       </c>
       <c r="G3">
-        <v>27.40573173161539</v>
+        <v>27.40573173161563</v>
       </c>
       <c r="H3">
-        <v>25.13698481617602</v>
+        <v>25.13698481617622</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>31.46293405955344</v>
+        <v>31.46293405955353</v>
       </c>
       <c r="L3">
-        <v>97.83727222135028</v>
+        <v>97.83727222135047</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.289802626787044</v>
+        <v>4.289802626787066</v>
       </c>
       <c r="D4">
         <v>4.714029403673201</v>
       </c>
       <c r="E4">
-        <v>38.23273262219446</v>
+        <v>38.23273262219461</v>
       </c>
       <c r="F4">
-        <v>31.1257311378988</v>
+        <v>31.12573113789912</v>
       </c>
       <c r="G4">
-        <v>24.67970052908966</v>
+        <v>24.67970052908993</v>
       </c>
       <c r="H4">
-        <v>22.55075940802739</v>
+        <v>22.55075940802768</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.40130592094586</v>
+        <v>29.40130592094595</v>
       </c>
       <c r="L4">
-        <v>91.83945730176458</v>
+        <v>91.83945730176488</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.200195676878268</v>
+        <v>4.200195676878237</v>
       </c>
       <c r="D5">
-        <v>4.482447927260617</v>
+        <v>4.482447927260618</v>
       </c>
       <c r="E5">
-        <v>37.17751190367793</v>
+        <v>37.17751190367775</v>
       </c>
       <c r="F5">
-        <v>29.86628907120834</v>
+        <v>29.86628907120826</v>
       </c>
       <c r="G5">
-        <v>23.62688219171039</v>
+        <v>23.62688219171033</v>
       </c>
       <c r="H5">
-        <v>21.55324240504854</v>
+        <v>21.55324240504848</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.58227198883047</v>
+        <v>28.58227198883037</v>
       </c>
       <c r="L5">
-        <v>89.4292686050057</v>
+        <v>89.42926860500539</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.186037025238363</v>
+        <v>4.186037025238256</v>
       </c>
       <c r="D6">
         <v>4.444692779079914</v>
       </c>
       <c r="E6">
-        <v>37.00324530393564</v>
+        <v>37.00324530393574</v>
       </c>
       <c r="F6">
-        <v>29.66058187065444</v>
+        <v>29.66058187065447</v>
       </c>
       <c r="G6">
         <v>23.45488416042884</v>
       </c>
       <c r="H6">
-        <v>21.39035089604593</v>
+        <v>21.39035089604594</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.44708900957285</v>
+        <v>28.44708900957292</v>
       </c>
       <c r="L6">
-        <v>89.03005421132789</v>
+        <v>89.03005421132801</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.288518946620835</v>
+        <v>4.28851894662082</v>
       </c>
       <c r="D7">
-        <v>4.710855844434404</v>
+        <v>4.710855844434201</v>
       </c>
       <c r="E7">
-        <v>38.21842676188763</v>
+        <v>38.21842676188751</v>
       </c>
       <c r="F7">
-        <v>31.10850122669027</v>
+        <v>31.10850122669029</v>
       </c>
       <c r="G7">
-        <v>24.6652996027218</v>
+        <v>24.66529960272179</v>
       </c>
       <c r="H7">
-        <v>22.53710988168837</v>
+        <v>22.53710988168838</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.3901966034203</v>
+        <v>29.39019660342019</v>
       </c>
       <c r="L7">
-        <v>91.80686559127965</v>
+        <v>91.80686559127949</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D8">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E8">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F8">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G8">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H8">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L8">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D9">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E9">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F9">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G9">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H9">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L9">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D10">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E10">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F10">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G10">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H10">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L10">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D11">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E11">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F11">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G11">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H11">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L11">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D12">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E12">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F12">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G12">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H12">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L12">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D13">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E13">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F13">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G13">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H13">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L13">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D14">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E14">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F14">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G14">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H14">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L14">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D15">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E15">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F15">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G15">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H15">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L15">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D16">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E16">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F16">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G16">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H16">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L16">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D17">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E17">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F17">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G17">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H17">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L17">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D18">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E18">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F18">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G18">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H18">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L18">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D19">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E19">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F19">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G19">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H19">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L19">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D20">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E20">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F20">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G20">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H20">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L20">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D21">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E21">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F21">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G21">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H21">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L21">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D22">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E22">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F22">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G22">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H22">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L22">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D23">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E23">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F23">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G23">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H23">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L23">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D24">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E24">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F24">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G24">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H24">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L24">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.766964350521509</v>
+        <v>4.766964350521542</v>
       </c>
       <c r="D25">
-        <v>6.037673041523553</v>
+        <v>6.037673041523486</v>
       </c>
       <c r="E25">
-        <v>43.87801000769707</v>
+        <v>43.87801000769728</v>
       </c>
       <c r="F25">
-        <v>38.21769737164367</v>
+        <v>38.21769737164313</v>
       </c>
       <c r="G25">
-        <v>30.60745914801268</v>
+        <v>30.60745914801221</v>
       </c>
       <c r="H25">
-        <v>28.18049620955929</v>
+        <v>28.18049620955884</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.79767843615092</v>
+        <v>33.79767843615107</v>
       </c>
       <c r="L25">
-        <v>104.4973294851259</v>
+        <v>104.497329485126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.896847445558928</v>
+        <v>4.893954973047887</v>
       </c>
       <c r="D2">
-        <v>6.459808266176152</v>
+        <v>6.452868775475327</v>
       </c>
       <c r="E2">
-        <v>45.56478158732703</v>
+        <v>45.56117919593412</v>
       </c>
       <c r="F2">
-        <v>40.43270434201315</v>
+        <v>40.39595526812845</v>
       </c>
       <c r="G2">
-        <v>32.46082812497701</v>
+        <v>32.50632352368761</v>
       </c>
       <c r="H2">
-        <v>29.94518894995479</v>
+        <v>31.31770877816572</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.91691025886951</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>35.11636042134499</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>108.1896641735349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>35.11386049975418</v>
+      </c>
+      <c r="M2">
+        <v>108.1788302701585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.521511802050096</v>
+        <v>4.518829317727616</v>
       </c>
       <c r="D3">
-        <v>5.318153925126149</v>
+        <v>5.313205570541655</v>
       </c>
       <c r="E3">
-        <v>40.88408797429655</v>
+        <v>40.8821531624626</v>
       </c>
       <c r="F3">
-        <v>34.38777845424601</v>
+        <v>34.35924916674345</v>
       </c>
       <c r="G3">
-        <v>27.40573173161563</v>
+        <v>27.44605637617282</v>
       </c>
       <c r="H3">
-        <v>25.13698481617622</v>
+        <v>26.35027314339389</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.11508829934189</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>31.46293405955353</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>97.83727222135047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>31.4619341789083</v>
+      </c>
+      <c r="M3">
+        <v>97.83097030852809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.289802626787066</v>
+        <v>4.287245593162795</v>
       </c>
       <c r="D4">
-        <v>4.714029403673201</v>
+        <v>4.710015825656852</v>
       </c>
       <c r="E4">
-        <v>38.23273262219461</v>
+        <v>38.23132311203704</v>
       </c>
       <c r="F4">
-        <v>31.12573113789912</v>
+        <v>31.10093701725092</v>
       </c>
       <c r="G4">
-        <v>24.67970052908993</v>
+        <v>24.71669444628274</v>
       </c>
       <c r="H4">
-        <v>22.55075940802768</v>
+        <v>23.69330071562926</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>22.53174226504121</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>29.40130592094595</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>91.83945730176488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>29.40079281018738</v>
+      </c>
+      <c r="M4">
+        <v>91.83482636607354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.200195676878237</v>
+        <v>4.196397499081501</v>
       </c>
       <c r="D5">
-        <v>4.482447927260618</v>
+        <v>4.478777638276449</v>
       </c>
       <c r="E5">
-        <v>37.17751190367775</v>
+        <v>37.17625975845525</v>
       </c>
       <c r="F5">
-        <v>29.86628907120826</v>
+        <v>29.84284004178514</v>
       </c>
       <c r="G5">
-        <v>23.62688219171033</v>
+        <v>23.66252022319765</v>
       </c>
       <c r="H5">
-        <v>21.55324240504848</v>
+        <v>22.6730162291293</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.53525956576445</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>28.58227198883037</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>89.42926860500539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>28.58190599157376</v>
+      </c>
+      <c r="M5">
+        <v>89.42518176435652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.186037025238256</v>
+        <v>4.182258726123111</v>
       </c>
       <c r="D6">
-        <v>4.444692779079914</v>
+        <v>4.441077782391323</v>
       </c>
       <c r="E6">
-        <v>37.00324530393574</v>
+        <v>37.002016856009</v>
       </c>
       <c r="F6">
-        <v>29.66058187065447</v>
+        <v>29.63734796052015</v>
       </c>
       <c r="G6">
-        <v>23.45488416042884</v>
+        <v>23.49029758033288</v>
       </c>
       <c r="H6">
-        <v>21.39035089604594</v>
+        <v>22.5067033810241</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.3725333602468</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>28.44708900957292</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>89.03005421132801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>28.44674519501222</v>
+      </c>
+      <c r="M6">
+        <v>89.02605161043134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.28851894662082</v>
+        <v>4.285962599477852</v>
       </c>
       <c r="D7">
-        <v>4.710855844434201</v>
+        <v>4.70684702121549</v>
       </c>
       <c r="E7">
-        <v>38.21842676188751</v>
+        <v>38.21701955480741</v>
       </c>
       <c r="F7">
-        <v>31.10850122669029</v>
+        <v>31.08372584360094</v>
       </c>
       <c r="G7">
-        <v>24.66529960272179</v>
+        <v>24.70227520552088</v>
       </c>
       <c r="H7">
-        <v>22.53710988168838</v>
+        <v>23.67931998376664</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22.51810715554992</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>29.39019660342019</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>91.80686559127949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29.3896856424565</v>
+      </c>
+      <c r="M7">
+        <v>91.80224244191693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D8">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E8">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F8">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G8">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H8">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M8">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D9">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E9">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F9">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G9">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H9">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M9">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D10">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E10">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F10">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G10">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H10">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M10">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D11">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E11">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F11">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G11">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H11">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M11">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D12">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E12">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F12">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G12">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H12">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M12">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D13">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E13">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F13">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G13">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H13">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M13">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D14">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E14">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F14">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G14">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H14">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M14">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D15">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E15">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F15">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G15">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H15">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M15">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D16">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E16">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F16">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G16">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H16">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M16">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D17">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E17">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F17">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G17">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H17">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M17">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D18">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E18">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F18">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G18">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H18">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M18">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D19">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E19">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F19">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G19">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H19">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M19">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D20">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E20">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F20">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G20">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H20">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M20">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D21">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E21">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F21">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G21">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H21">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M21">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D22">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E22">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F22">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G22">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H22">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M22">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D23">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E23">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F23">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G23">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H23">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M23">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D24">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E24">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F24">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G24">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H24">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>104.497329485126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M24">
+        <v>104.4884311949797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.766964350521542</v>
+        <v>4.764145673166601</v>
       </c>
       <c r="D25">
-        <v>6.037673041523486</v>
+        <v>6.031513037154563</v>
       </c>
       <c r="E25">
-        <v>43.87801000769728</v>
+        <v>43.87515633943752</v>
       </c>
       <c r="F25">
-        <v>38.21769737164313</v>
+        <v>38.18420131572665</v>
       </c>
       <c r="G25">
-        <v>30.60745914801221</v>
+        <v>30.65125111649372</v>
       </c>
       <c r="H25">
-        <v>28.18049620955884</v>
+        <v>29.49173555808434</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.15475144656064</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.79767843615107</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>104.497329485126</v>
+        <v>33.79584463201634</v>
+      </c>
+      <c r="M25">
+        <v>104.4884311949797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.893954973047887</v>
+        <v>7.557940882430477</v>
       </c>
       <c r="D2">
-        <v>6.452868775475327</v>
+        <v>4.355400919876857</v>
       </c>
       <c r="E2">
-        <v>45.56117919593412</v>
+        <v>7.88935671201563</v>
       </c>
       <c r="F2">
-        <v>40.39595526812845</v>
+        <v>60.16204472663823</v>
       </c>
       <c r="G2">
-        <v>32.50632352368761</v>
+        <v>1.970568646512172</v>
       </c>
       <c r="H2">
-        <v>31.31770877816572</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.91691025886951</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.012853596537635</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>60.14656626728582</v>
       </c>
       <c r="L2">
-        <v>35.11386049975418</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>108.1788302701585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.65946373716561</v>
+      </c>
+      <c r="O2">
+        <v>45.53598237667968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.518829317727616</v>
+        <v>6.953048631001754</v>
       </c>
       <c r="D3">
-        <v>5.313205570541655</v>
+        <v>4.122475570318719</v>
       </c>
       <c r="E3">
-        <v>40.8821531624626</v>
+        <v>7.654928340695016</v>
       </c>
       <c r="F3">
-        <v>34.35924916674345</v>
+        <v>55.95805478421953</v>
       </c>
       <c r="G3">
-        <v>27.44605637617282</v>
+        <v>1.998151142313616</v>
       </c>
       <c r="H3">
-        <v>26.35027314339389</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25.11508829934189</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.8109662760509</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>55.60766110386366</v>
       </c>
       <c r="L3">
-        <v>31.4619341789083</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>97.83097030852809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.48582346056702</v>
+      </c>
+      <c r="O3">
+        <v>42.33358887619264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.287245593162795</v>
+        <v>6.57239107443021</v>
       </c>
       <c r="D4">
-        <v>4.710015825656852</v>
+        <v>3.982782864953857</v>
       </c>
       <c r="E4">
-        <v>38.23132311203704</v>
+        <v>7.517272447680264</v>
       </c>
       <c r="F4">
-        <v>31.10093701725092</v>
+        <v>53.41217478684129</v>
       </c>
       <c r="G4">
-        <v>24.71669444628274</v>
+        <v>2.014890998658507</v>
       </c>
       <c r="H4">
-        <v>23.69330071562926</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>22.53174226504121</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.697078268199279</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>52.72664163999809</v>
       </c>
       <c r="L4">
-        <v>29.40079281018738</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>91.83482636607354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.38261648036427</v>
+      </c>
+      <c r="O4">
+        <v>40.41967411940335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.196397499081501</v>
+        <v>6.414550963620893</v>
       </c>
       <c r="D5">
-        <v>4.478777638276449</v>
+        <v>3.926421798142219</v>
       </c>
       <c r="E5">
-        <v>37.17625975845525</v>
+        <v>7.462618639543245</v>
       </c>
       <c r="F5">
-        <v>29.84284004178514</v>
+        <v>52.38129013857973</v>
       </c>
       <c r="G5">
-        <v>23.66252022319765</v>
+        <v>2.021693843361414</v>
       </c>
       <c r="H5">
-        <v>22.6730162291293</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21.53525956576445</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.652948274004284</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>51.52674871786005</v>
       </c>
       <c r="L5">
-        <v>28.58190599157376</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>89.42518176435652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.34146277879576</v>
+      </c>
+      <c r="O5">
+        <v>39.64601773820801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.182258726123111</v>
+        <v>6.388167425055754</v>
       </c>
       <c r="D6">
-        <v>4.441077782391323</v>
+        <v>3.917090374101364</v>
       </c>
       <c r="E6">
-        <v>37.002016856009</v>
+        <v>7.453627191007245</v>
       </c>
       <c r="F6">
-        <v>29.63734796052015</v>
+        <v>52.21045962493286</v>
       </c>
       <c r="G6">
-        <v>23.49029758033288</v>
+        <v>2.022823093334543</v>
       </c>
       <c r="H6">
-        <v>22.5067033810241</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>21.3725333602468</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.645751764791121</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>51.3258907567387</v>
       </c>
       <c r="L6">
-        <v>28.44674519501222</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>89.02605161043134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.33468508332688</v>
+      </c>
+      <c r="O6">
+        <v>39.51789248501955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.285962599477852</v>
+        <v>6.570273861681233</v>
       </c>
       <c r="D7">
-        <v>4.70684702121549</v>
+        <v>3.982020788432325</v>
       </c>
       <c r="E7">
-        <v>38.21701955480741</v>
+        <v>7.516529683008512</v>
       </c>
       <c r="F7">
-        <v>31.08372584360094</v>
+        <v>53.39824765957312</v>
       </c>
       <c r="G7">
-        <v>24.70227520552088</v>
+        <v>2.01498278439603</v>
       </c>
       <c r="H7">
-        <v>23.67931998376664</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>22.51810715554992</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.696474181284024</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>52.71056669694134</v>
       </c>
       <c r="L7">
-        <v>29.3896856424565</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>91.80224244191693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.38205774981624</v>
+      </c>
+      <c r="O7">
+        <v>40.40921676464308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.764145673166601</v>
+        <v>7.351031496290848</v>
       </c>
       <c r="D8">
-        <v>6.031513037154563</v>
+        <v>4.274214508677008</v>
       </c>
       <c r="E8">
-        <v>43.87515633943752</v>
+        <v>7.807124785724678</v>
       </c>
       <c r="F8">
-        <v>38.18420131572665</v>
+        <v>58.70345650107688</v>
       </c>
       <c r="G8">
-        <v>30.65125111649372</v>
+        <v>1.980140231418525</v>
       </c>
       <c r="H8">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.940983455329497</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>58.5996037106993</v>
       </c>
       <c r="L8">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.5989154374011</v>
+      </c>
+      <c r="O8">
+        <v>44.40221623875865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.764145673166601</v>
+        <v>8.83209599403701</v>
       </c>
       <c r="D9">
-        <v>6.031513037154563</v>
+        <v>4.890293085190683</v>
       </c>
       <c r="E9">
-        <v>43.87515633943752</v>
+        <v>8.436107327278409</v>
       </c>
       <c r="F9">
-        <v>38.18420131572665</v>
+        <v>69.99478874320802</v>
       </c>
       <c r="G9">
-        <v>30.65125111649372</v>
+        <v>1.908421625968583</v>
       </c>
       <c r="H9">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.515601309630332</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>69.53513473228976</v>
       </c>
       <c r="L9">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14.04863339223495</v>
+      </c>
+      <c r="O9">
+        <v>53.33649938332494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.764145673166601</v>
+        <v>9.937408926874701</v>
       </c>
       <c r="D10">
-        <v>6.031513037154563</v>
+        <v>5.404353457813597</v>
       </c>
       <c r="E10">
-        <v>43.87515633943752</v>
+        <v>8.955246831150705</v>
       </c>
       <c r="F10">
-        <v>38.18420131572665</v>
+        <v>79.01451854665481</v>
       </c>
       <c r="G10">
-        <v>30.65125111649372</v>
+        <v>1.849876348838602</v>
       </c>
       <c r="H10">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.027529901395452</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>77.47381390606478</v>
       </c>
       <c r="L10">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14.38887827874449</v>
+      </c>
+      <c r="O10">
+        <v>60.40432143438604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.764145673166601</v>
+        <v>10.462631110002</v>
       </c>
       <c r="D11">
-        <v>6.031513037154563</v>
+        <v>5.665768038241128</v>
       </c>
       <c r="E11">
-        <v>43.87515633943752</v>
+        <v>9.212743823365283</v>
       </c>
       <c r="F11">
-        <v>38.18420131572665</v>
+        <v>83.42026636931695</v>
       </c>
       <c r="G11">
-        <v>30.65125111649372</v>
+        <v>1.820473234434144</v>
       </c>
       <c r="H11">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.39369276748457</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>81.17510723105865</v>
       </c>
       <c r="L11">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>14.54375452214755</v>
+      </c>
+      <c r="O11">
+        <v>63.85184222103361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.764145673166601</v>
+        <v>10.66750782703903</v>
       </c>
       <c r="D12">
-        <v>6.031513037154563</v>
+        <v>5.770875010546312</v>
       </c>
       <c r="E12">
-        <v>43.87515633943752</v>
+        <v>9.314697832855398</v>
       </c>
       <c r="F12">
-        <v>38.18420131572665</v>
+        <v>85.15865996379587</v>
       </c>
       <c r="G12">
-        <v>30.65125111649372</v>
+        <v>1.808717041041064</v>
       </c>
       <c r="H12">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.559642061948312</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>82.60616363004914</v>
       </c>
       <c r="L12">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>14.602090718552</v>
+      </c>
+      <c r="O12">
+        <v>65.21163440497443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.764145673166601</v>
+        <v>10.62305459864105</v>
       </c>
       <c r="D13">
-        <v>6.031513037154563</v>
+        <v>5.747916782824602</v>
       </c>
       <c r="E13">
-        <v>43.87515633943752</v>
+        <v>9.292510661964792</v>
       </c>
       <c r="F13">
-        <v>38.18420131572665</v>
+        <v>84.78054072512363</v>
       </c>
       <c r="G13">
-        <v>30.65125111649372</v>
+        <v>1.811281721702656</v>
       </c>
       <c r="H13">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.523616603627822</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>82.29627102555824</v>
       </c>
       <c r="L13">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>14.58954863636917</v>
+      </c>
+      <c r="O13">
+        <v>64.91588406142674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.764145673166601</v>
+        <v>10.47934447898913</v>
       </c>
       <c r="D14">
-        <v>6.031513037154563</v>
+        <v>5.674275438115708</v>
       </c>
       <c r="E14">
-        <v>43.87515633943752</v>
+        <v>9.221031466164535</v>
       </c>
       <c r="F14">
-        <v>38.18420131572665</v>
+        <v>83.56166900920515</v>
       </c>
       <c r="G14">
-        <v>30.65125111649372</v>
+        <v>1.819520290304827</v>
       </c>
       <c r="H14">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.407222399719073</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>81.29211880793848</v>
       </c>
       <c r="L14">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>14.54856282924806</v>
+      </c>
+      <c r="O14">
+        <v>63.96245789575607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.764145673166601</v>
+        <v>10.39220797909969</v>
       </c>
       <c r="D15">
-        <v>6.031513037154563</v>
+        <v>5.630051010791784</v>
       </c>
       <c r="E15">
-        <v>43.87515633943752</v>
+        <v>9.177882970495878</v>
       </c>
       <c r="F15">
-        <v>38.18420131572665</v>
+        <v>82.82526249845439</v>
       </c>
       <c r="G15">
-        <v>30.65125111649372</v>
+        <v>1.824476713037601</v>
       </c>
       <c r="H15">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.336700271741234</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>80.68154554300116</v>
       </c>
       <c r="L15">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14.52340369279941</v>
+      </c>
+      <c r="O15">
+        <v>63.38636686960481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.764145673166601</v>
+        <v>9.903737280651171</v>
       </c>
       <c r="D16">
-        <v>6.031513037154563</v>
+        <v>5.387980425892318</v>
       </c>
       <c r="E16">
-        <v>43.87515633943752</v>
+        <v>8.938948035242078</v>
       </c>
       <c r="F16">
-        <v>38.18420131572665</v>
+        <v>78.73461000408788</v>
       </c>
       <c r="G16">
-        <v>30.65125111649372</v>
+        <v>1.851725858952986</v>
       </c>
       <c r="H16">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.010990378937656</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>77.23493994636192</v>
       </c>
       <c r="L16">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>14.37873540995947</v>
+      </c>
+      <c r="O16">
+        <v>60.18521220053149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.764145673166601</v>
+        <v>9.611342833711923</v>
       </c>
       <c r="D17">
-        <v>6.031513037154563</v>
+        <v>5.247716460321563</v>
       </c>
       <c r="E17">
-        <v>43.87515633943752</v>
+        <v>8.79858542082285</v>
       </c>
       <c r="F17">
-        <v>38.18420131572665</v>
+        <v>76.31716396453983</v>
       </c>
       <c r="G17">
-        <v>30.65125111649372</v>
+        <v>1.867609567139027</v>
       </c>
       <c r="H17">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.869782088477038</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>75.15268995048983</v>
       </c>
       <c r="L17">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>14.28983705772661</v>
+      </c>
+      <c r="O17">
+        <v>58.29236714224039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.764145673166601</v>
+        <v>9.445050794116844</v>
       </c>
       <c r="D18">
-        <v>6.031513037154563</v>
+        <v>5.169459725857662</v>
       </c>
       <c r="E18">
-        <v>43.87515633943752</v>
+        <v>8.719748033807839</v>
       </c>
       <c r="F18">
-        <v>38.18420131572665</v>
+        <v>74.95303246600605</v>
       </c>
       <c r="G18">
-        <v>30.65125111649372</v>
+        <v>1.876502805401923</v>
       </c>
       <c r="H18">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.791445558606985</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>73.96215960303827</v>
       </c>
       <c r="L18">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>14.23874105299241</v>
+      </c>
+      <c r="O18">
+        <v>57.22381798055986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.764145673166601</v>
+        <v>9.38900969583036</v>
       </c>
       <c r="D19">
-        <v>6.031513037154563</v>
+        <v>5.143331679565783</v>
       </c>
       <c r="E19">
-        <v>43.87515633943752</v>
+        <v>8.693350554058698</v>
       </c>
       <c r="F19">
-        <v>38.18420131572665</v>
+        <v>74.49509947101834</v>
       </c>
       <c r="G19">
-        <v>30.65125111649372</v>
+        <v>1.879477169221756</v>
       </c>
       <c r="H19">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.765374822373195</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>73.55992544125962</v>
       </c>
       <c r="L19">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>14.22145391429312</v>
+      </c>
+      <c r="O19">
+        <v>56.86503002695196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.764145673166601</v>
+        <v>9.642258305858496</v>
       </c>
       <c r="D20">
-        <v>6.031513037154563</v>
+        <v>5.262385626232051</v>
       </c>
       <c r="E20">
-        <v>43.87515633943752</v>
+        <v>8.813323579326353</v>
       </c>
       <c r="F20">
-        <v>38.18420131572665</v>
+        <v>76.5716360113787</v>
       </c>
       <c r="G20">
-        <v>30.65125111649372</v>
+        <v>1.865945064268732</v>
       </c>
       <c r="H20">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.884505009940342</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>75.37352070809217</v>
       </c>
       <c r="L20">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>14.29929844688379</v>
+      </c>
+      <c r="O20">
+        <v>58.49166218144899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.764145673166601</v>
+        <v>10.52136255168353</v>
       </c>
       <c r="D21">
-        <v>6.031513037154563</v>
+        <v>5.695715700174507</v>
       </c>
       <c r="E21">
-        <v>43.87515633943752</v>
+        <v>9.241890564689518</v>
       </c>
       <c r="F21">
-        <v>38.18420131572665</v>
+        <v>83.9174847232912</v>
       </c>
       <c r="G21">
-        <v>30.65125111649372</v>
+        <v>1.817119780620858</v>
       </c>
       <c r="H21">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.441242776016884</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>81.58607954955204</v>
       </c>
       <c r="L21">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>14.5606135805481</v>
+      </c>
+      <c r="O21">
+        <v>64.24079612034546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.764145673166601</v>
+        <v>11.13366478276335</v>
       </c>
       <c r="D22">
-        <v>6.031513037154563</v>
+        <v>6.016835794903344</v>
       </c>
       <c r="E22">
-        <v>43.87515633943752</v>
+        <v>9.549352687884804</v>
       </c>
       <c r="F22">
-        <v>38.18420131572665</v>
+        <v>89.15448250192773</v>
       </c>
       <c r="G22">
-        <v>30.65125111649372</v>
+        <v>1.781352229843141</v>
       </c>
       <c r="H22">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.938055852258154</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>85.83530379026129</v>
       </c>
       <c r="L22">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>14.72920891195019</v>
+      </c>
+      <c r="O22">
+        <v>68.33653623846359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.764145673166601</v>
+        <v>10.80196216288478</v>
       </c>
       <c r="D23">
-        <v>6.031513037154563</v>
+        <v>5.840835492122799</v>
       </c>
       <c r="E23">
-        <v>43.87515633943752</v>
+        <v>9.382016769810459</v>
       </c>
       <c r="F23">
-        <v>38.18420131572665</v>
+        <v>86.30544715873994</v>
       </c>
       <c r="G23">
-        <v>30.65125111649372</v>
+        <v>1.800912679923534</v>
       </c>
       <c r="H23">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.668668839892966</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>83.54140283951449</v>
       </c>
       <c r="L23">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>14.63960849074236</v>
+      </c>
+      <c r="O23">
+        <v>66.10855134505456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.764145673166601</v>
+        <v>9.628275966100036</v>
       </c>
       <c r="D24">
-        <v>6.031513037154563</v>
+        <v>5.255746414399919</v>
       </c>
       <c r="E24">
-        <v>43.87515633943752</v>
+        <v>8.806654757346042</v>
       </c>
       <c r="F24">
-        <v>38.18420131572665</v>
+        <v>76.45651090992996</v>
       </c>
       <c r="G24">
-        <v>30.65125111649372</v>
+        <v>1.866698314318835</v>
       </c>
       <c r="H24">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.877840038547888</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>75.27366369866414</v>
       </c>
       <c r="L24">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>104.4884311949797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>14.29502089201408</v>
+      </c>
+      <c r="O24">
+        <v>58.40150098207957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.764145673166601</v>
+        <v>8.432867623459185</v>
       </c>
       <c r="D25">
-        <v>6.031513037154563</v>
+        <v>4.716176979448402</v>
       </c>
       <c r="E25">
-        <v>43.87515633943752</v>
+        <v>8.257986585944318</v>
       </c>
       <c r="F25">
-        <v>38.18420131572665</v>
+        <v>66.82772079209722</v>
       </c>
       <c r="G25">
-        <v>30.65125111649372</v>
+        <v>1.928495614400239</v>
       </c>
       <c r="H25">
-        <v>29.49173555808434</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>28.15475144656064</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.347395855699671</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>66.6197755531813</v>
       </c>
       <c r="L25">
-        <v>33.79584463201634</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>104.4884311949797</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.9247719333107</v>
+      </c>
+      <c r="O25">
+        <v>50.84987868742782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.557940882430477</v>
+        <v>7.174254094123839</v>
       </c>
       <c r="D2">
-        <v>4.355400919876857</v>
+        <v>8.60823019120776</v>
       </c>
       <c r="E2">
-        <v>7.88935671201563</v>
+        <v>11.56470693156319</v>
       </c>
       <c r="F2">
-        <v>60.16204472663823</v>
+        <v>18.56327957006679</v>
       </c>
       <c r="G2">
-        <v>1.970568646512172</v>
+        <v>17.9272585104114</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.630097663923601</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.012853596537635</v>
+        <v>6.238447102028333</v>
       </c>
       <c r="K2">
-        <v>60.14656626728582</v>
+        <v>24.87250780886945</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.65946373716561</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>45.53598237667968</v>
+        <v>11.99551895890739</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.953048631001754</v>
+        <v>6.678414203160229</v>
       </c>
       <c r="D3">
-        <v>4.122475570318719</v>
+        <v>8.196035833780197</v>
       </c>
       <c r="E3">
-        <v>7.654928340695016</v>
+        <v>11.05580203888456</v>
       </c>
       <c r="F3">
-        <v>55.95805478421953</v>
+        <v>18.32232583765684</v>
       </c>
       <c r="G3">
-        <v>1.998151142313616</v>
+        <v>17.72880630463141</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.764869872945821</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.8109662760509</v>
+        <v>6.130240433453323</v>
       </c>
       <c r="K3">
-        <v>55.60766110386366</v>
+        <v>23.2771077358487</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.48582346056702</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>42.33358887619264</v>
+        <v>12.13053938617277</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.57239107443021</v>
+        <v>6.356891422245853</v>
       </c>
       <c r="D4">
-        <v>3.982782864953857</v>
+        <v>7.934843894253514</v>
       </c>
       <c r="E4">
-        <v>7.517272447680264</v>
+        <v>10.73736880300266</v>
       </c>
       <c r="F4">
-        <v>53.41217478684129</v>
+        <v>18.20230078593778</v>
       </c>
       <c r="G4">
-        <v>2.014890998658507</v>
+        <v>17.65618799251615</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.855969366326699</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.697078268199279</v>
+        <v>6.066653475416837</v>
       </c>
       <c r="K4">
-        <v>52.72664163999809</v>
+        <v>22.24090169726493</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.38261648036427</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>40.41967411940335</v>
+        <v>12.23495513427135</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.414550963620893</v>
+        <v>6.221539866528553</v>
       </c>
       <c r="D5">
-        <v>3.926421798142219</v>
+        <v>7.826493950469714</v>
       </c>
       <c r="E5">
-        <v>7.462618639543245</v>
+        <v>10.60628414519099</v>
       </c>
       <c r="F5">
-        <v>52.38129013857973</v>
+        <v>18.16019978136616</v>
       </c>
       <c r="G5">
-        <v>2.021693843361414</v>
+        <v>17.63839804489022</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.895079393428821</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.652948274004284</v>
+        <v>6.041469620049588</v>
       </c>
       <c r="K5">
-        <v>51.52674871786005</v>
+        <v>21.80439011016147</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.34146277879576</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>39.64601773820801</v>
+        <v>12.28255683140041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.388167425055754</v>
+        <v>6.198802415358507</v>
       </c>
       <c r="D6">
-        <v>3.917090374101364</v>
+        <v>7.808391116389924</v>
       </c>
       <c r="E6">
-        <v>7.453627191007245</v>
+        <v>10.58444358581643</v>
       </c>
       <c r="F6">
-        <v>52.21045962493286</v>
+        <v>18.15361348843908</v>
       </c>
       <c r="G6">
-        <v>2.022823093334543</v>
+        <v>17.636138451646</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.901690425674566</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.645751764791121</v>
+        <v>6.037332144270817</v>
       </c>
       <c r="K6">
-        <v>51.3258907567387</v>
+        <v>21.73104713937202</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.33468508332688</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>39.51789248501955</v>
+        <v>12.29075595101162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.570273861681233</v>
+        <v>6.35508359499798</v>
       </c>
       <c r="D7">
-        <v>3.982020788432325</v>
+        <v>7.933390209937227</v>
       </c>
       <c r="E7">
-        <v>7.516529683008512</v>
+        <v>10.73560604189734</v>
       </c>
       <c r="F7">
-        <v>53.39824765957312</v>
+        <v>18.20170572447051</v>
       </c>
       <c r="G7">
-        <v>2.01498278439603</v>
+        <v>17.65590110517758</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.856488917984474</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.696474181284024</v>
+        <v>6.066310874536294</v>
       </c>
       <c r="K7">
-        <v>52.71056669694134</v>
+        <v>22.23507244457114</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.38205774981624</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>40.40921676464308</v>
+        <v>12.23557711739999</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.351031496290848</v>
+        <v>7.006811263814061</v>
       </c>
       <c r="D8">
-        <v>4.274214508677008</v>
+        <v>8.467856236166428</v>
       </c>
       <c r="E8">
-        <v>7.807124785724678</v>
+        <v>11.39057421072773</v>
       </c>
       <c r="F8">
-        <v>58.70345650107688</v>
+        <v>18.47428665965282</v>
       </c>
       <c r="G8">
-        <v>1.980140231418525</v>
+        <v>17.84829400138728</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.674763176419047</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.940983455329497</v>
+        <v>6.20055248884728</v>
       </c>
       <c r="K8">
-        <v>58.5996037106993</v>
+        <v>24.33415399873151</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.5989154374011</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>44.40221623875865</v>
+        <v>12.03738965972399</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.83209599403701</v>
+        <v>8.150972971142526</v>
       </c>
       <c r="D9">
-        <v>4.890293085190683</v>
+        <v>9.447159267166375</v>
       </c>
       <c r="E9">
-        <v>8.436107327278409</v>
+        <v>12.62101815348562</v>
       </c>
       <c r="F9">
-        <v>69.99478874320802</v>
+        <v>19.2380882355268</v>
       </c>
       <c r="G9">
-        <v>1.908421625968583</v>
+        <v>18.63698973766651</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.390254908163405</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.515601309630332</v>
+        <v>6.485899703446113</v>
       </c>
       <c r="K9">
-        <v>69.53513473228976</v>
+        <v>28.00256536260236</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.04863339223495</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>53.33649938332494</v>
+        <v>11.83600859485315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.937408926874701</v>
+        <v>8.912275642628646</v>
       </c>
       <c r="D10">
-        <v>5.404353457813597</v>
+        <v>10.11999620580555</v>
       </c>
       <c r="E10">
-        <v>8.955246831150705</v>
+        <v>13.48494050416338</v>
       </c>
       <c r="F10">
-        <v>79.01451854665481</v>
+        <v>19.9472196931498</v>
       </c>
       <c r="G10">
-        <v>1.849876348838602</v>
+        <v>19.48782865213467</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.233604534591312</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.027529901395452</v>
+        <v>6.708292390111962</v>
       </c>
       <c r="K10">
-        <v>77.47381390606478</v>
+        <v>30.42770210598266</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.38887827874449</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>60.40432143438604</v>
+        <v>11.82527136453903</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.462631110002</v>
+        <v>9.241911534082012</v>
       </c>
       <c r="D11">
-        <v>5.665768038241128</v>
+        <v>10.41527970542641</v>
       </c>
       <c r="E11">
-        <v>9.212743823365283</v>
+        <v>13.86818129752344</v>
       </c>
       <c r="F11">
-        <v>83.42026636931695</v>
+        <v>20.30308351303673</v>
       </c>
       <c r="G11">
-        <v>1.820473234434144</v>
+        <v>19.93605226704837</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.17582879491319</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.39369276748457</v>
+        <v>6.812086425926554</v>
       </c>
       <c r="K11">
-        <v>81.17510723105865</v>
+        <v>31.47320006546411</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.54375452214755</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>63.85184222103361</v>
+        <v>11.85509456597846</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.66750782703903</v>
+        <v>9.364381220760762</v>
       </c>
       <c r="D12">
-        <v>5.770875010546312</v>
+        <v>10.52550511105644</v>
       </c>
       <c r="E12">
-        <v>9.314697832855398</v>
+        <v>14.01183746341673</v>
       </c>
       <c r="F12">
-        <v>85.15865996379587</v>
+        <v>20.44268236027477</v>
       </c>
       <c r="G12">
-        <v>1.808717041041064</v>
+        <v>20.11463402626654</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.156083291763009</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.559642061948312</v>
+        <v>6.851757170924216</v>
       </c>
       <c r="K12">
-        <v>82.60616363004914</v>
+        <v>31.86088649700357</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.602090718552</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>65.21163440497443</v>
+        <v>11.87176735997271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.62305459864105</v>
+        <v>9.338109273184884</v>
       </c>
       <c r="D13">
-        <v>5.747916782824602</v>
+        <v>10.50183741497906</v>
       </c>
       <c r="E13">
-        <v>9.292510661964792</v>
+        <v>13.98096470421175</v>
       </c>
       <c r="F13">
-        <v>84.78054072512363</v>
+        <v>20.41240125222365</v>
       </c>
       <c r="G13">
-        <v>1.811281721702656</v>
+        <v>20.07577962345775</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.160237745519622</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.523616603627822</v>
+        <v>6.843197241944771</v>
       </c>
       <c r="K13">
-        <v>82.29627102555824</v>
+        <v>31.77775559285167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.58954863636917</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>64.91588406142674</v>
+        <v>11.86793135521385</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.47934447898913</v>
+        <v>9.252034159085815</v>
       </c>
       <c r="D14">
-        <v>5.674275438115708</v>
+        <v>10.42438010959461</v>
       </c>
       <c r="E14">
-        <v>9.221031466164535</v>
+        <v>13.88002972115497</v>
       </c>
       <c r="F14">
-        <v>83.56166900920515</v>
+        <v>20.31447111994553</v>
       </c>
       <c r="G14">
-        <v>1.819520290304827</v>
+        <v>19.9505669074946</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.174160414865091</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.407222399719073</v>
+        <v>6.815342881918131</v>
       </c>
       <c r="K14">
-        <v>81.29211880793848</v>
+        <v>31.50525954786272</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.54856282924806</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>63.96245789575607</v>
+        <v>11.85635628141163</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.39220797909969</v>
+        <v>9.19900511825306</v>
       </c>
       <c r="D15">
-        <v>5.630051010791784</v>
+        <v>10.37672695925565</v>
       </c>
       <c r="E15">
-        <v>9.177882970495878</v>
+        <v>13.81801123112496</v>
       </c>
       <c r="F15">
-        <v>82.82526249845439</v>
+        <v>20.25511785938702</v>
       </c>
       <c r="G15">
-        <v>1.824476713037601</v>
+        <v>19.87502321034663</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.182972206509571</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.336700271741234</v>
+        <v>6.798328662728383</v>
       </c>
       <c r="K15">
-        <v>80.68154554300116</v>
+        <v>31.33727968509726</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.52340369279941</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>63.38636686960481</v>
+        <v>11.84997796527958</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.903737280651171</v>
+        <v>8.890401053382293</v>
       </c>
       <c r="D16">
-        <v>5.387980425892318</v>
+        <v>10.10047785136607</v>
       </c>
       <c r="E16">
-        <v>8.938948035242078</v>
+        <v>13.45969239801245</v>
       </c>
       <c r="F16">
-        <v>78.73461000408788</v>
+        <v>19.92463797730178</v>
       </c>
       <c r="G16">
-        <v>1.851725858952986</v>
+        <v>19.45977340753184</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.237667919057491</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.010990378937656</v>
+        <v>6.701561034243715</v>
       </c>
       <c r="K16">
-        <v>77.23493994636192</v>
+        <v>30.35822153732739</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.37873540995947</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>60.18521220053149</v>
+        <v>11.8240543873781</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.611342833711923</v>
+        <v>8.696839100633598</v>
       </c>
       <c r="D17">
-        <v>5.247716460321563</v>
+        <v>9.928211207878924</v>
       </c>
       <c r="E17">
-        <v>8.79858542082285</v>
+        <v>13.23732293122334</v>
       </c>
       <c r="F17">
-        <v>76.31716396453983</v>
+        <v>19.73046823952718</v>
       </c>
       <c r="G17">
-        <v>1.867609567139027</v>
+        <v>19.22076161468492</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.274809315819176</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.869782088477038</v>
+        <v>6.642861211790435</v>
       </c>
       <c r="K17">
-        <v>75.15268995048983</v>
+        <v>29.74287288288052</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.28983705772661</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>58.29236714224039</v>
+        <v>11.81732259691935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.445050794116844</v>
+        <v>8.583934279686281</v>
       </c>
       <c r="D18">
-        <v>5.169459725857662</v>
+        <v>9.828113639636447</v>
       </c>
       <c r="E18">
-        <v>8.719748033807839</v>
+        <v>13.10850573116855</v>
       </c>
       <c r="F18">
-        <v>74.95303246600605</v>
+        <v>19.62191718452101</v>
       </c>
       <c r="G18">
-        <v>1.876502805401923</v>
+        <v>19.08904867508456</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.29742889088667</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.791445558606985</v>
+        <v>6.609346440699854</v>
       </c>
       <c r="K18">
-        <v>73.96215960303827</v>
+        <v>29.38350357976351</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.23874105299241</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>57.22381798055986</v>
+        <v>11.8166951432397</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.38900969583036</v>
+        <v>8.545435187983816</v>
       </c>
       <c r="D19">
-        <v>5.143331679565783</v>
+        <v>9.794049523892829</v>
       </c>
       <c r="E19">
-        <v>8.693350554058698</v>
+        <v>13.06473537637084</v>
       </c>
       <c r="F19">
-        <v>74.49509947101834</v>
+        <v>19.58569925893911</v>
       </c>
       <c r="G19">
-        <v>1.879477169221756</v>
+        <v>19.04543938180458</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.305297675772605</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.765374822373195</v>
+        <v>6.598041856261079</v>
       </c>
       <c r="K19">
-        <v>73.55992544125962</v>
+        <v>29.26089127052589</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.22145391429312</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>56.86503002695196</v>
+        <v>11.81702780956313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.642258305858496</v>
+        <v>8.717606606443088</v>
       </c>
       <c r="D20">
-        <v>5.262385626232051</v>
+        <v>9.946654595312431</v>
       </c>
       <c r="E20">
-        <v>8.813323579326353</v>
+        <v>13.26108989020691</v>
       </c>
       <c r="F20">
-        <v>76.5716360113787</v>
+        <v>19.75081350597101</v>
       </c>
       <c r="G20">
-        <v>1.865945064268732</v>
+        <v>19.2456080306377</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.27072411473214</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.884505009940342</v>
+        <v>6.649084349291269</v>
       </c>
       <c r="K20">
-        <v>75.37352070809217</v>
+        <v>29.80893997498798</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.29929844688379</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>58.49166218144899</v>
+        <v>11.81770054051593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.52136255168353</v>
+        <v>9.277380103039674</v>
       </c>
       <c r="D21">
-        <v>5.695715700174507</v>
+        <v>10.44717466511417</v>
       </c>
       <c r="E21">
-        <v>9.241890564689518</v>
+        <v>13.90971706275412</v>
       </c>
       <c r="F21">
-        <v>83.9174847232912</v>
+        <v>20.34310383791651</v>
       </c>
       <c r="G21">
-        <v>1.817119780620858</v>
+        <v>19.98710470178982</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.170011490198169</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.441242776016884</v>
+        <v>6.823514526327477</v>
       </c>
       <c r="K21">
-        <v>81.58607954955204</v>
+        <v>31.58552069659461</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.5606135805481</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>64.24079612034546</v>
+        <v>11.859607168838</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.13366478276335</v>
+        <v>9.629511681829367</v>
       </c>
       <c r="D22">
-        <v>6.016835794903344</v>
+        <v>10.76500340351105</v>
       </c>
       <c r="E22">
-        <v>9.549352687884804</v>
+        <v>14.32505365331404</v>
       </c>
       <c r="F22">
-        <v>89.15448250192773</v>
+        <v>20.75843076405964</v>
       </c>
       <c r="G22">
-        <v>1.781352229843141</v>
+        <v>20.52327155169329</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.116721764489359</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.938055852258154</v>
+        <v>6.939645347491437</v>
       </c>
       <c r="K22">
-        <v>85.83530379026129</v>
+        <v>32.69874269732705</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.72920891195019</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>68.33653623846359</v>
+        <v>11.91851532192771</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.80196216288478</v>
+        <v>9.442812434458773</v>
       </c>
       <c r="D23">
-        <v>5.840835492122799</v>
+        <v>10.59623245071766</v>
       </c>
       <c r="E23">
-        <v>9.382016769810459</v>
+        <v>14.10418245195619</v>
       </c>
       <c r="F23">
-        <v>86.30544715873994</v>
+        <v>20.53416583951579</v>
       </c>
       <c r="G23">
-        <v>1.800912679923534</v>
+        <v>20.23239276157367</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.143949282547078</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.668668839892966</v>
+        <v>6.877472466077964</v>
       </c>
       <c r="K23">
-        <v>83.54140283951449</v>
+        <v>32.10894807468114</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.63960849074236</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>66.10855134505456</v>
+        <v>11.8840680367917</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.628275966100036</v>
+        <v>8.708222677056238</v>
       </c>
       <c r="D24">
-        <v>5.255746414399919</v>
+        <v>9.938319635800132</v>
       </c>
       <c r="E24">
-        <v>8.806654757346042</v>
+        <v>13.25034787679544</v>
       </c>
       <c r="F24">
-        <v>76.45651090992996</v>
+        <v>19.7416058227927</v>
       </c>
       <c r="G24">
-        <v>1.866698314318835</v>
+        <v>19.23435722234711</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.272567103811579</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.877840038547888</v>
+        <v>6.646270143620803</v>
       </c>
       <c r="K24">
-        <v>75.27366369866414</v>
+        <v>29.77908848233605</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.29502089201408</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>58.40150098207957</v>
+        <v>11.81751960153492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.432867623459185</v>
+        <v>7.855546108603654</v>
       </c>
       <c r="D25">
-        <v>4.716176979448402</v>
+        <v>9.190147472664954</v>
       </c>
       <c r="E25">
-        <v>8.257986585944318</v>
+        <v>12.29475513722803</v>
       </c>
       <c r="F25">
-        <v>66.82772079209722</v>
+        <v>19.00594680812669</v>
       </c>
       <c r="G25">
-        <v>1.928495614400239</v>
+        <v>18.37705160902942</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.458693109589774</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.347395855699671</v>
+        <v>6.406414273307884</v>
       </c>
       <c r="K25">
-        <v>66.6197755531813</v>
+        <v>27.05784847117095</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.9247719333107</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>50.84987868742782</v>
+        <v>11.86807107571541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.174254094123839</v>
+        <v>4.918206080611712</v>
       </c>
       <c r="D2">
-        <v>8.60823019120776</v>
+        <v>10.10000125667195</v>
       </c>
       <c r="E2">
-        <v>11.56470693156319</v>
+        <v>14.05119685983825</v>
       </c>
       <c r="F2">
-        <v>18.56327957006679</v>
+        <v>28.56534670690753</v>
       </c>
       <c r="G2">
-        <v>17.9272585104114</v>
+        <v>27.19863681651143</v>
       </c>
       <c r="H2">
-        <v>7.630097663923601</v>
+        <v>13.98782412387762</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.238447102028333</v>
+        <v>9.76431838930154</v>
       </c>
       <c r="K2">
-        <v>24.87250780886945</v>
+        <v>16.5798889347404</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.99551895890739</v>
+        <v>21.06708393494464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.678414203160229</v>
+        <v>4.749792681091111</v>
       </c>
       <c r="D3">
-        <v>8.196035833780197</v>
+        <v>10.01835647363327</v>
       </c>
       <c r="E3">
-        <v>11.05580203888456</v>
+        <v>13.97637652016467</v>
       </c>
       <c r="F3">
-        <v>18.32232583765684</v>
+        <v>28.69064401669711</v>
       </c>
       <c r="G3">
-        <v>17.72880630463141</v>
+        <v>27.40496711370968</v>
       </c>
       <c r="H3">
-        <v>7.764869872945821</v>
+        <v>14.06649587242386</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.130240433453323</v>
+        <v>9.772510979567503</v>
       </c>
       <c r="K3">
-        <v>23.2771077358487</v>
+        <v>15.83430605596674</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.13053938617277</v>
+        <v>21.20927709565592</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.356891422245853</v>
+        <v>4.644761917343654</v>
       </c>
       <c r="D4">
-        <v>7.934843894253514</v>
+        <v>9.969201810761561</v>
       </c>
       <c r="E4">
-        <v>10.73736880300266</v>
+        <v>13.932979134866</v>
       </c>
       <c r="F4">
-        <v>18.20230078593778</v>
+        <v>28.777120494908</v>
       </c>
       <c r="G4">
-        <v>17.65618799251615</v>
+        <v>27.54493088166578</v>
       </c>
       <c r="H4">
-        <v>7.855969366326699</v>
+        <v>14.11790600191266</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.066653475416837</v>
+        <v>9.779172719477804</v>
       </c>
       <c r="K4">
-        <v>22.24090169726493</v>
+        <v>15.35728215786864</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.23495513427135</v>
+        <v>21.3030494417906</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.221539866528553</v>
+        <v>4.601629703093863</v>
       </c>
       <c r="D5">
-        <v>7.826493950469714</v>
+        <v>9.94943274609874</v>
       </c>
       <c r="E5">
-        <v>10.60628414519099</v>
+        <v>13.91594767702743</v>
       </c>
       <c r="F5">
-        <v>18.16019978136616</v>
+        <v>28.81474732562095</v>
       </c>
       <c r="G5">
-        <v>17.63839804489022</v>
+        <v>27.60527512432552</v>
       </c>
       <c r="H5">
-        <v>7.895079393428821</v>
+        <v>14.13963647336485</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.041469620049588</v>
+        <v>9.782297789365748</v>
       </c>
       <c r="K5">
-        <v>21.80439011016147</v>
+        <v>15.1582678979597</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.28255683140041</v>
+        <v>21.34288268157887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.198802415358507</v>
+        <v>4.594449992287688</v>
       </c>
       <c r="D6">
-        <v>7.808391116389924</v>
+        <v>9.946166398445785</v>
       </c>
       <c r="E6">
-        <v>10.58444358581643</v>
+        <v>13.91315946600572</v>
       </c>
       <c r="F6">
-        <v>18.15361348843908</v>
+        <v>28.82113901692212</v>
       </c>
       <c r="G6">
-        <v>17.636138451646</v>
+        <v>27.61549413316963</v>
       </c>
       <c r="H6">
-        <v>7.901690425674566</v>
+        <v>14.14329192538368</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.037332144270817</v>
+        <v>9.78284149060319</v>
       </c>
       <c r="K6">
-        <v>21.73104713937202</v>
+        <v>15.12494937081996</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.29075595101162</v>
+        <v>21.34959466194451</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.35508359499798</v>
+        <v>4.644181456384703</v>
       </c>
       <c r="D7">
-        <v>7.933390209937227</v>
+        <v>9.96893411644611</v>
       </c>
       <c r="E7">
-        <v>10.73560604189734</v>
+        <v>13.93274677958813</v>
       </c>
       <c r="F7">
-        <v>18.20170572447051</v>
+        <v>28.77761829603401</v>
       </c>
       <c r="G7">
-        <v>17.65590110517758</v>
+        <v>27.54573135224117</v>
       </c>
       <c r="H7">
-        <v>7.856488917984474</v>
+        <v>14.11819590730281</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.066310874536294</v>
+        <v>9.779213203674399</v>
       </c>
       <c r="K7">
-        <v>22.23507244457114</v>
+        <v>15.35461659560978</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.23557711739999</v>
+        <v>21.30358009365306</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.006811263814061</v>
+        <v>4.860518623118351</v>
       </c>
       <c r="D8">
-        <v>8.467856236166428</v>
+        <v>10.0716577104293</v>
       </c>
       <c r="E8">
-        <v>11.39057421072773</v>
+        <v>14.02487974353476</v>
       </c>
       <c r="F8">
-        <v>18.47428665965282</v>
+        <v>28.60656090043778</v>
       </c>
       <c r="G8">
-        <v>17.84829400138728</v>
+        <v>27.26700572493846</v>
       </c>
       <c r="H8">
-        <v>7.674763176419047</v>
+        <v>14.01430535345062</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.20055248884728</v>
+        <v>9.76680468332157</v>
       </c>
       <c r="K8">
-        <v>24.33415399873151</v>
+        <v>16.32692192864238</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.03738965972399</v>
+        <v>21.11476697246995</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.150972971142526</v>
+        <v>5.268793916829893</v>
       </c>
       <c r="D9">
-        <v>9.447159267166375</v>
+        <v>10.28009445003325</v>
       </c>
       <c r="E9">
-        <v>12.62101815348562</v>
+        <v>14.2250721216376</v>
       </c>
       <c r="F9">
-        <v>19.2380882355268</v>
+        <v>28.34739482124816</v>
       </c>
       <c r="G9">
-        <v>18.63698973766651</v>
+        <v>26.82712236608429</v>
       </c>
       <c r="H9">
-        <v>7.390254908163405</v>
+        <v>13.83523597727969</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.485899703446113</v>
+        <v>9.755408225256247</v>
       </c>
       <c r="K9">
-        <v>28.00256536260236</v>
+        <v>18.07317071913038</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.83600859485315</v>
+        <v>20.7960515897723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.912275642628646</v>
+        <v>5.555352065088186</v>
       </c>
       <c r="D10">
-        <v>10.11999620580555</v>
+        <v>10.43648082791326</v>
       </c>
       <c r="E10">
-        <v>13.48494050416338</v>
+        <v>14.38312226854789</v>
       </c>
       <c r="F10">
-        <v>19.9472196931498</v>
+        <v>28.20421483443814</v>
       </c>
       <c r="G10">
-        <v>19.48782865213467</v>
+        <v>26.57082453208781</v>
       </c>
       <c r="H10">
-        <v>7.233604534591312</v>
+        <v>13.71873507631594</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.708292390111962</v>
+        <v>9.754905741701736</v>
       </c>
       <c r="K10">
-        <v>30.42770210598266</v>
+        <v>19.24970859808245</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.82527136453903</v>
+        <v>20.59366142533357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.241911534082012</v>
+        <v>5.682152978249169</v>
       </c>
       <c r="D11">
-        <v>10.41527970542641</v>
+        <v>10.50810990494266</v>
       </c>
       <c r="E11">
-        <v>13.86818129752344</v>
+        <v>14.45719184456117</v>
       </c>
       <c r="F11">
-        <v>20.30308351303673</v>
+        <v>28.14947952644094</v>
       </c>
       <c r="G11">
-        <v>19.93605226704837</v>
+        <v>26.46913889092851</v>
       </c>
       <c r="H11">
-        <v>7.17582879491319</v>
+        <v>13.66901336211441</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.812086425926554</v>
+        <v>9.75638041807265</v>
       </c>
       <c r="K11">
-        <v>31.47320006546411</v>
+        <v>19.7604695716204</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.85509456597846</v>
+        <v>20.50856456827674</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.364381220760762</v>
+        <v>5.729611496297525</v>
       </c>
       <c r="D12">
-        <v>10.52550511105644</v>
+        <v>10.53528550327614</v>
       </c>
       <c r="E12">
-        <v>14.01183746341673</v>
+        <v>14.48553346063061</v>
       </c>
       <c r="F12">
-        <v>20.44268236027477</v>
+        <v>28.13025898917184</v>
       </c>
       <c r="G12">
-        <v>20.11463402626654</v>
+        <v>26.43280788334946</v>
       </c>
       <c r="H12">
-        <v>7.156083291763009</v>
+        <v>13.65065679923849</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.851757170924216</v>
+        <v>9.757183045670992</v>
       </c>
       <c r="K12">
-        <v>31.86088649700357</v>
+        <v>19.95027588934249</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.87176735997271</v>
+        <v>20.47734982440641</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.338109273184884</v>
+        <v>5.719415972042128</v>
       </c>
       <c r="D13">
-        <v>10.50183741497906</v>
+        <v>10.52943077534561</v>
       </c>
       <c r="E13">
-        <v>13.98096470421175</v>
+        <v>14.47941686312838</v>
       </c>
       <c r="F13">
-        <v>20.41240125222365</v>
+        <v>28.13433129887238</v>
       </c>
       <c r="G13">
-        <v>20.07577962345775</v>
+        <v>26.44053517714891</v>
       </c>
       <c r="H13">
-        <v>7.160237745519622</v>
+        <v>13.65458920570329</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.843197241944771</v>
+        <v>9.756999337538007</v>
       </c>
       <c r="K13">
-        <v>31.77775559285167</v>
+        <v>19.90955945173291</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.86793135521385</v>
+        <v>20.4840274615885</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.252034159085815</v>
+        <v>5.686068856270103</v>
       </c>
       <c r="D14">
-        <v>10.42438010959461</v>
+        <v>10.51034473969863</v>
       </c>
       <c r="E14">
-        <v>13.88002972115497</v>
+        <v>14.45951776454029</v>
       </c>
       <c r="F14">
-        <v>20.31447111994553</v>
+        <v>28.14786798552398</v>
       </c>
       <c r="G14">
-        <v>19.9505669074946</v>
+        <v>26.46610614442573</v>
       </c>
       <c r="H14">
-        <v>7.174160414865091</v>
+        <v>13.66749369162794</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.815342881918131</v>
+        <v>9.75644156121824</v>
       </c>
       <c r="K14">
-        <v>31.50525954786272</v>
+        <v>19.77615782564579</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.85635628141163</v>
+        <v>20.50597623763793</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.19900511825306</v>
+        <v>5.665568787354171</v>
       </c>
       <c r="D15">
-        <v>10.37672695925565</v>
+        <v>10.4986601000972</v>
       </c>
       <c r="E15">
-        <v>13.81801123112496</v>
+        <v>14.44736658025571</v>
       </c>
       <c r="F15">
-        <v>20.25511785938702</v>
+        <v>28.15635611728463</v>
       </c>
       <c r="G15">
-        <v>19.87502321034663</v>
+        <v>26.4820532990981</v>
       </c>
       <c r="H15">
-        <v>7.182972206509571</v>
+        <v>13.67545955748272</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.798328662728383</v>
+        <v>9.756131685381057</v>
       </c>
       <c r="K15">
-        <v>31.33727968509726</v>
+        <v>19.69397318984755</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.84997796527958</v>
+        <v>20.51955218833463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.890401053382293</v>
+        <v>5.54698963862323</v>
       </c>
       <c r="D16">
-        <v>10.10047785136607</v>
+        <v>10.43180789916391</v>
       </c>
       <c r="E16">
-        <v>13.45969239801245</v>
+        <v>14.37832371740534</v>
       </c>
       <c r="F16">
-        <v>19.92463797730178</v>
+        <v>28.20800213174221</v>
       </c>
       <c r="G16">
-        <v>19.45977340753184</v>
+        <v>26.57777259194616</v>
       </c>
       <c r="H16">
-        <v>7.237667919057491</v>
+        <v>13.72205049636822</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.701561034243715</v>
+        <v>9.75484358281685</v>
       </c>
       <c r="K16">
-        <v>30.35822153732739</v>
+        <v>19.21582893170222</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.8240543873781</v>
+        <v>20.59936359228321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.696839100633598</v>
+        <v>5.473299295605638</v>
       </c>
       <c r="D17">
-        <v>9.928211207878924</v>
+        <v>10.39090775457144</v>
       </c>
       <c r="E17">
-        <v>13.23732293122334</v>
+        <v>14.33651088605362</v>
       </c>
       <c r="F17">
-        <v>19.73046823952718</v>
+        <v>28.24235671724629</v>
       </c>
       <c r="G17">
-        <v>19.22076161468492</v>
+        <v>26.6403337073851</v>
       </c>
       <c r="H17">
-        <v>7.274809315819176</v>
+        <v>13.75147206855612</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.642861211790435</v>
+        <v>9.754489142135879</v>
       </c>
       <c r="K17">
-        <v>29.74287288288052</v>
+        <v>18.91616980236812</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.81732259691935</v>
+        <v>20.65011586586546</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.583934279686281</v>
+        <v>5.430582308569727</v>
       </c>
       <c r="D18">
-        <v>9.828113639636447</v>
+        <v>10.36743015378333</v>
       </c>
       <c r="E18">
-        <v>13.10850573116855</v>
+        <v>14.31266685410074</v>
       </c>
       <c r="F18">
-        <v>19.62191718452101</v>
+        <v>28.26309463596109</v>
       </c>
       <c r="G18">
-        <v>19.08904867508456</v>
+        <v>26.67771831980563</v>
       </c>
       <c r="H18">
-        <v>7.29742889088667</v>
+        <v>13.76870278518806</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.609346440699854</v>
+        <v>9.754445647509225</v>
       </c>
       <c r="K18">
-        <v>29.38350357976351</v>
+        <v>18.74151662620957</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.8166951432397</v>
+        <v>20.67996298243454</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.545435187983816</v>
+        <v>5.416063526559973</v>
       </c>
       <c r="D19">
-        <v>9.794049523892829</v>
+        <v>10.35948970624016</v>
       </c>
       <c r="E19">
-        <v>13.06473537637084</v>
+        <v>14.30462956442151</v>
       </c>
       <c r="F19">
-        <v>19.58569925893911</v>
+        <v>28.27028376808606</v>
       </c>
       <c r="G19">
-        <v>19.04543938180458</v>
+        <v>26.69061577326134</v>
       </c>
       <c r="H19">
-        <v>7.305297675772605</v>
+        <v>13.7745897147137</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.598041856261079</v>
+        <v>9.754458484796711</v>
       </c>
       <c r="K19">
-        <v>29.26089127052589</v>
+        <v>18.68199057746601</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.81702780956313</v>
+        <v>20.69018111513174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.717606606443088</v>
+        <v>5.481178502429023</v>
       </c>
       <c r="D20">
-        <v>9.946654595312431</v>
+        <v>10.39525690967212</v>
       </c>
       <c r="E20">
-        <v>13.26108989020691</v>
+        <v>14.34094079188932</v>
       </c>
       <c r="F20">
-        <v>19.75081350597101</v>
+        <v>28.23859830236089</v>
       </c>
       <c r="G20">
-        <v>19.2456080306377</v>
+        <v>26.63352872800808</v>
       </c>
       <c r="H20">
-        <v>7.27072411473214</v>
+        <v>13.74830818659803</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.649084349291269</v>
+        <v>9.754510280091095</v>
       </c>
       <c r="K20">
-        <v>29.80893997498798</v>
+        <v>18.94830749099536</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.81770054051593</v>
+        <v>20.64464528088693</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.277380103039674</v>
+        <v>5.695879209678833</v>
       </c>
       <c r="D21">
-        <v>10.44717466511417</v>
+        <v>10.51594953181912</v>
       </c>
       <c r="E21">
-        <v>13.90971706275412</v>
+        <v>14.46535481378471</v>
       </c>
       <c r="F21">
-        <v>20.34310383791651</v>
+        <v>28.14385095858036</v>
       </c>
       <c r="G21">
-        <v>19.98710470178982</v>
+        <v>26.4585360489299</v>
       </c>
       <c r="H21">
-        <v>7.170011490198169</v>
+        <v>13.66369051378196</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.823514526327477</v>
+        <v>9.756598772558226</v>
       </c>
       <c r="K21">
-        <v>31.58552069659461</v>
+        <v>19.81543968302999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.859607168838</v>
+        <v>20.49950189277241</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.629511681829367</v>
+        <v>5.832926719247244</v>
       </c>
       <c r="D22">
-        <v>10.76500340351105</v>
+        <v>10.59511894832453</v>
       </c>
       <c r="E22">
-        <v>14.32505365331404</v>
+        <v>14.54836559563935</v>
       </c>
       <c r="F22">
-        <v>20.75843076405964</v>
+        <v>28.09071412069977</v>
       </c>
       <c r="G22">
-        <v>20.52327155169329</v>
+        <v>26.3568608550505</v>
       </c>
       <c r="H22">
-        <v>7.116721764489359</v>
+        <v>13.61113949423654</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.939645347491437</v>
+        <v>9.759386678595948</v>
       </c>
       <c r="K22">
-        <v>32.69874269732705</v>
+        <v>20.36109997869378</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.91851532192771</v>
+        <v>20.4105303544494</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.442812434458773</v>
+        <v>5.760095360529668</v>
       </c>
       <c r="D23">
-        <v>10.59623245071766</v>
+        <v>10.55284447330691</v>
       </c>
       <c r="E23">
-        <v>14.10418245195619</v>
+        <v>14.50391218968238</v>
       </c>
       <c r="F23">
-        <v>20.53416583951579</v>
+        <v>28.11826675929236</v>
       </c>
       <c r="G23">
-        <v>20.23239276157367</v>
+        <v>26.40995511910209</v>
       </c>
       <c r="H23">
-        <v>7.143949282547078</v>
+        <v>13.63893484831177</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.877472466077964</v>
+        <v>9.757768793148294</v>
       </c>
       <c r="K23">
-        <v>32.10894807468114</v>
+        <v>20.07182415947552</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.8840680367917</v>
+        <v>20.45747499681546</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.708222677056238</v>
+        <v>5.477617404048452</v>
       </c>
       <c r="D24">
-        <v>9.938319635800132</v>
+        <v>10.39329054172383</v>
       </c>
       <c r="E24">
-        <v>13.25034787679544</v>
+        <v>14.33893742348516</v>
       </c>
       <c r="F24">
-        <v>19.7416058227927</v>
+        <v>28.24029440808193</v>
       </c>
       <c r="G24">
-        <v>19.23435722234711</v>
+        <v>26.63660084644783</v>
       </c>
       <c r="H24">
-        <v>7.272567103811579</v>
+        <v>13.74973759378157</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.646270143620803</v>
+        <v>9.754500224316843</v>
       </c>
       <c r="K24">
-        <v>29.77908848233605</v>
+        <v>18.9337854329456</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.81751960153492</v>
+        <v>20.64711644907507</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.855546108603654</v>
+        <v>5.160456844299305</v>
       </c>
       <c r="D25">
-        <v>9.190147472664954</v>
+        <v>10.22306187677979</v>
       </c>
       <c r="E25">
-        <v>12.29475513722803</v>
+        <v>14.16891812722361</v>
       </c>
       <c r="F25">
-        <v>19.00594680812669</v>
+        <v>28.40926292874204</v>
       </c>
       <c r="G25">
-        <v>18.37705160902942</v>
+        <v>26.93450890247578</v>
       </c>
       <c r="H25">
-        <v>7.458693109589774</v>
+        <v>13.88103629899967</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.406414273307884</v>
+        <v>9.757107497407041</v>
       </c>
       <c r="K25">
-        <v>27.05784847117095</v>
+        <v>17.61892371273724</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.86807107571541</v>
+        <v>20.87671896000701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.918206080611712</v>
+        <v>7.174254094123805</v>
       </c>
       <c r="D2">
-        <v>10.10000125667195</v>
+        <v>8.608230191207852</v>
       </c>
       <c r="E2">
-        <v>14.05119685983825</v>
+        <v>11.56470693156324</v>
       </c>
       <c r="F2">
-        <v>28.56534670690753</v>
+        <v>18.56327957006668</v>
       </c>
       <c r="G2">
-        <v>27.19863681651143</v>
+        <v>17.92725851041132</v>
       </c>
       <c r="H2">
-        <v>13.98782412387762</v>
+        <v>7.630097663923473</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.76431838930154</v>
+        <v>6.238447102028357</v>
       </c>
       <c r="K2">
-        <v>16.5798889347404</v>
+        <v>24.8725078088695</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.06708393494464</v>
+        <v>11.99551895890725</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749792681091111</v>
+        <v>6.678414203160283</v>
       </c>
       <c r="D3">
-        <v>10.01835647363327</v>
+        <v>8.19603583378016</v>
       </c>
       <c r="E3">
-        <v>13.97637652016467</v>
+        <v>11.05580203888458</v>
       </c>
       <c r="F3">
-        <v>28.69064401669711</v>
+        <v>18.32232583765666</v>
       </c>
       <c r="G3">
-        <v>27.40496711370968</v>
+        <v>17.72880630463116</v>
       </c>
       <c r="H3">
-        <v>14.06649587242386</v>
+        <v>7.764869872945765</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.772510979567503</v>
+        <v>6.130240433453412</v>
       </c>
       <c r="K3">
-        <v>15.83430605596674</v>
+        <v>23.27710773584869</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.20927709565592</v>
+        <v>12.13053938617264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.644761917343654</v>
+        <v>6.356891422245885</v>
       </c>
       <c r="D4">
-        <v>9.969201810761561</v>
+        <v>7.934843894253469</v>
       </c>
       <c r="E4">
-        <v>13.932979134866</v>
+        <v>10.73736880300261</v>
       </c>
       <c r="F4">
-        <v>28.777120494908</v>
+        <v>18.20230078593762</v>
       </c>
       <c r="G4">
-        <v>27.54493088166578</v>
+        <v>17.65618799251591</v>
       </c>
       <c r="H4">
-        <v>14.11790600191266</v>
+        <v>7.855969366326583</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.779172719477804</v>
+        <v>6.066653475416783</v>
       </c>
       <c r="K4">
-        <v>15.35728215786864</v>
+        <v>22.24090169726499</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.3030494417906</v>
+        <v>12.23495513427125</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.601629703093863</v>
+        <v>6.221539866528553</v>
       </c>
       <c r="D5">
-        <v>9.94943274609874</v>
+        <v>7.826493950469726</v>
       </c>
       <c r="E5">
-        <v>13.91594767702743</v>
+        <v>10.60628414519102</v>
       </c>
       <c r="F5">
-        <v>28.81474732562095</v>
+        <v>18.16019978136604</v>
       </c>
       <c r="G5">
-        <v>27.60527512432552</v>
+        <v>17.63839804488992</v>
       </c>
       <c r="H5">
-        <v>14.13963647336485</v>
+        <v>7.895079393428768</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.782297789365748</v>
+        <v>6.041469620049587</v>
       </c>
       <c r="K5">
-        <v>15.1582678979597</v>
+        <v>21.8043901101615</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.34288268157887</v>
+        <v>12.28255683140026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.594449992287688</v>
+        <v>6.19880241535863</v>
       </c>
       <c r="D6">
-        <v>9.946166398445785</v>
+        <v>7.808391116389776</v>
       </c>
       <c r="E6">
-        <v>13.91315946600572</v>
+        <v>10.58444358581633</v>
       </c>
       <c r="F6">
-        <v>28.82113901692212</v>
+        <v>18.15361348843889</v>
       </c>
       <c r="G6">
-        <v>27.61549413316963</v>
+        <v>17.63613845164602</v>
       </c>
       <c r="H6">
-        <v>14.14329192538368</v>
+        <v>7.901690425674504</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.78284149060319</v>
+        <v>6.037332144270819</v>
       </c>
       <c r="K6">
-        <v>15.12494937081996</v>
+        <v>21.73104713937204</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.34959466194451</v>
+        <v>12.29075595101151</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.644181456384703</v>
+        <v>6.355083594998104</v>
       </c>
       <c r="D7">
-        <v>9.96893411644611</v>
+        <v>7.93339020993716</v>
       </c>
       <c r="E7">
-        <v>13.93274677958813</v>
+        <v>10.73560604189724</v>
       </c>
       <c r="F7">
-        <v>28.77761829603401</v>
+        <v>18.20170572447045</v>
       </c>
       <c r="G7">
-        <v>27.54573135224117</v>
+        <v>17.65590110517754</v>
       </c>
       <c r="H7">
-        <v>14.11819590730281</v>
+        <v>7.856488917984474</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.779213203674399</v>
+        <v>6.066310874536234</v>
       </c>
       <c r="K7">
-        <v>15.35461659560978</v>
+        <v>22.23507244457113</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.30358009365306</v>
+        <v>12.23557711739998</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860518623118351</v>
+        <v>7.006811263814079</v>
       </c>
       <c r="D8">
-        <v>10.0716577104293</v>
+        <v>8.467856236166416</v>
       </c>
       <c r="E8">
-        <v>14.02487974353476</v>
+        <v>11.39057421072771</v>
       </c>
       <c r="F8">
-        <v>28.60656090043778</v>
+        <v>18.47428665965267</v>
       </c>
       <c r="G8">
-        <v>27.26700572493846</v>
+        <v>17.84829400138711</v>
       </c>
       <c r="H8">
-        <v>14.01430535345062</v>
+        <v>7.674763176419032</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.76680468332157</v>
+        <v>6.200552488847253</v>
       </c>
       <c r="K8">
-        <v>16.32692192864238</v>
+        <v>24.33415399873154</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.11476697246995</v>
+        <v>12.03738965972386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.268793916829893</v>
+        <v>8.150972971142599</v>
       </c>
       <c r="D9">
-        <v>10.28009445003325</v>
+        <v>9.447159267166349</v>
       </c>
       <c r="E9">
-        <v>14.2250721216376</v>
+        <v>12.62101815348558</v>
       </c>
       <c r="F9">
-        <v>28.34739482124816</v>
+        <v>19.2380882355269</v>
       </c>
       <c r="G9">
-        <v>26.82712236608429</v>
+        <v>18.63698973766662</v>
       </c>
       <c r="H9">
-        <v>13.83523597727969</v>
+        <v>7.390254908163447</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.755408225256247</v>
+        <v>6.485899703446106</v>
       </c>
       <c r="K9">
-        <v>18.07317071913038</v>
+        <v>28.00256536260234</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.7960515897723</v>
+        <v>11.83600859485325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.555352065088186</v>
+        <v>8.91227564262862</v>
       </c>
       <c r="D10">
-        <v>10.43648082791326</v>
+        <v>10.11999620580551</v>
       </c>
       <c r="E10">
-        <v>14.38312226854789</v>
+        <v>13.48494050416335</v>
       </c>
       <c r="F10">
-        <v>28.20421483443814</v>
+        <v>19.94721969314973</v>
       </c>
       <c r="G10">
-        <v>26.57082453208781</v>
+        <v>19.48782865213462</v>
       </c>
       <c r="H10">
-        <v>13.71873507631594</v>
+        <v>7.233604534591305</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.754905741701736</v>
+        <v>6.70829239011193</v>
       </c>
       <c r="K10">
-        <v>19.24970859808245</v>
+        <v>30.4277021059827</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.59366142533357</v>
+        <v>11.82527136453898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.682152978249169</v>
+        <v>9.241911534082005</v>
       </c>
       <c r="D11">
-        <v>10.50810990494266</v>
+        <v>10.4152797054264</v>
       </c>
       <c r="E11">
-        <v>14.45719184456117</v>
+        <v>13.86818129752342</v>
       </c>
       <c r="F11">
-        <v>28.14947952644094</v>
+        <v>20.30308351303663</v>
       </c>
       <c r="G11">
-        <v>26.46913889092851</v>
+        <v>19.93605226704826</v>
       </c>
       <c r="H11">
-        <v>13.66901336211441</v>
+        <v>7.175828794913149</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.75638041807265</v>
+        <v>6.812086425926505</v>
       </c>
       <c r="K11">
-        <v>19.7604695716204</v>
+        <v>31.4732000654642</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.50856456827674</v>
+        <v>11.85509456597833</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.729611496297525</v>
+        <v>9.364381220760762</v>
       </c>
       <c r="D12">
-        <v>10.53528550327614</v>
+        <v>10.52550511105646</v>
       </c>
       <c r="E12">
-        <v>14.48553346063061</v>
+        <v>14.01183746341672</v>
       </c>
       <c r="F12">
-        <v>28.13025898917184</v>
+        <v>20.44268236027477</v>
       </c>
       <c r="G12">
-        <v>26.43280788334946</v>
+        <v>20.11463402626653</v>
       </c>
       <c r="H12">
-        <v>13.65065679923849</v>
+        <v>7.156083291763064</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.757183045670992</v>
+        <v>6.851757170924226</v>
       </c>
       <c r="K12">
-        <v>19.95027588934249</v>
+        <v>31.86088649700353</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.47734982440641</v>
+        <v>11.87176735997272</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.719415972042128</v>
+        <v>9.338109273184827</v>
       </c>
       <c r="D13">
-        <v>10.52943077534561</v>
+        <v>10.50183741497913</v>
       </c>
       <c r="E13">
-        <v>14.47941686312838</v>
+        <v>13.98096470421179</v>
       </c>
       <c r="F13">
-        <v>28.13433129887238</v>
+        <v>20.41240125222366</v>
       </c>
       <c r="G13">
-        <v>26.44053517714891</v>
+        <v>20.07577962345771</v>
       </c>
       <c r="H13">
-        <v>13.65458920570329</v>
+        <v>7.160237745519628</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.756999337538007</v>
+        <v>6.843197241944789</v>
       </c>
       <c r="K13">
-        <v>19.90955945173291</v>
+        <v>31.77775559285173</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.4840274615885</v>
+        <v>11.86793135521383</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.686068856270103</v>
+        <v>9.252034159085888</v>
       </c>
       <c r="D14">
-        <v>10.51034473969863</v>
+        <v>10.42438010959462</v>
       </c>
       <c r="E14">
-        <v>14.45951776454029</v>
+        <v>13.880029721155</v>
       </c>
       <c r="F14">
-        <v>28.14786798552398</v>
+        <v>20.31447111994558</v>
       </c>
       <c r="G14">
-        <v>26.46610614442573</v>
+        <v>19.95056690749465</v>
       </c>
       <c r="H14">
-        <v>13.66749369162794</v>
+        <v>7.174160414865091</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.75644156121824</v>
+        <v>6.815342881918143</v>
       </c>
       <c r="K14">
-        <v>19.77615782564579</v>
+        <v>31.50525954786274</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.50597623763793</v>
+        <v>11.85635628141167</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.665568787354171</v>
+        <v>9.199005118253094</v>
       </c>
       <c r="D15">
-        <v>10.4986601000972</v>
+        <v>10.37672695925562</v>
       </c>
       <c r="E15">
-        <v>14.44736658025571</v>
+        <v>13.8180112311249</v>
       </c>
       <c r="F15">
-        <v>28.15635611728463</v>
+        <v>20.25511785938695</v>
       </c>
       <c r="G15">
-        <v>26.4820532990981</v>
+        <v>19.87502321034657</v>
       </c>
       <c r="H15">
-        <v>13.67545955748272</v>
+        <v>7.182972206509483</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.756131685381057</v>
+        <v>6.798328662728325</v>
       </c>
       <c r="K15">
-        <v>19.69397318984755</v>
+        <v>31.33727968509731</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.51955218833463</v>
+        <v>11.84997796527949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.54698963862323</v>
+        <v>8.890401053382336</v>
       </c>
       <c r="D16">
-        <v>10.43180789916391</v>
+        <v>10.10047785136604</v>
       </c>
       <c r="E16">
-        <v>14.37832371740534</v>
+        <v>13.45969239801244</v>
       </c>
       <c r="F16">
-        <v>28.20800213174221</v>
+        <v>19.92463797730169</v>
       </c>
       <c r="G16">
-        <v>26.57777259194616</v>
+        <v>19.45977340753181</v>
       </c>
       <c r="H16">
-        <v>13.72205049636822</v>
+        <v>7.23766791905744</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.75484358281685</v>
+        <v>6.701561034243767</v>
       </c>
       <c r="K16">
-        <v>19.21582893170222</v>
+        <v>30.35822153732737</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.59936359228321</v>
+        <v>11.82405438737804</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.473299295605638</v>
+        <v>8.696839100633641</v>
       </c>
       <c r="D17">
-        <v>10.39090775457144</v>
+        <v>9.928211207878947</v>
       </c>
       <c r="E17">
-        <v>14.33651088605362</v>
+        <v>13.23732293122337</v>
       </c>
       <c r="F17">
-        <v>28.24235671724629</v>
+        <v>19.73046823952699</v>
       </c>
       <c r="G17">
-        <v>26.6403337073851</v>
+        <v>19.2207616146846</v>
       </c>
       <c r="H17">
-        <v>13.75147206855612</v>
+        <v>7.274809315819067</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.754489142135879</v>
+        <v>6.642861211790435</v>
       </c>
       <c r="K17">
-        <v>18.91616980236812</v>
+        <v>29.7428728828806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.65011586586546</v>
+        <v>11.81732259691907</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.430582308569727</v>
+        <v>8.583934279686293</v>
       </c>
       <c r="D18">
-        <v>10.36743015378333</v>
+        <v>9.828113639636516</v>
       </c>
       <c r="E18">
-        <v>14.31266685410074</v>
+        <v>13.10850573116856</v>
       </c>
       <c r="F18">
-        <v>28.26309463596109</v>
+        <v>19.62191718452099</v>
       </c>
       <c r="G18">
-        <v>26.67771831980563</v>
+        <v>19.08904867508455</v>
       </c>
       <c r="H18">
-        <v>13.76870278518806</v>
+        <v>7.297428890886618</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.754445647509225</v>
+        <v>6.609346440699833</v>
       </c>
       <c r="K18">
-        <v>18.74151662620957</v>
+        <v>29.38350357976354</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.67996298243454</v>
+        <v>11.81669514323963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.416063526559973</v>
+        <v>8.545435187983832</v>
       </c>
       <c r="D19">
-        <v>10.35948970624016</v>
+        <v>9.794049523892861</v>
       </c>
       <c r="E19">
-        <v>14.30462956442151</v>
+        <v>13.06473537637089</v>
       </c>
       <c r="F19">
-        <v>28.27028376808606</v>
+        <v>19.58569925893915</v>
       </c>
       <c r="G19">
-        <v>26.69061577326134</v>
+        <v>19.04543938180463</v>
       </c>
       <c r="H19">
-        <v>13.7745897147137</v>
+        <v>7.305297675772652</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.754458484796711</v>
+        <v>6.598041856261114</v>
       </c>
       <c r="K19">
-        <v>18.68199057746601</v>
+        <v>29.26089127052587</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.69018111513174</v>
+        <v>11.81702780956316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.481178502429023</v>
+        <v>8.717606606443084</v>
       </c>
       <c r="D20">
-        <v>10.39525690967212</v>
+        <v>9.946654595312427</v>
       </c>
       <c r="E20">
-        <v>14.34094079188932</v>
+        <v>13.2610898902069</v>
       </c>
       <c r="F20">
-        <v>28.23859830236089</v>
+        <v>19.75081350597086</v>
       </c>
       <c r="G20">
-        <v>26.63352872800808</v>
+        <v>19.24560803063755</v>
       </c>
       <c r="H20">
-        <v>13.74830818659803</v>
+        <v>7.270724114731964</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.754510280091095</v>
+        <v>6.649084349291245</v>
       </c>
       <c r="K20">
-        <v>18.94830749099536</v>
+        <v>29.80893997498805</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.64464528088693</v>
+        <v>11.81770054051576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.695879209678833</v>
+        <v>9.277380103039819</v>
       </c>
       <c r="D21">
-        <v>10.51594953181912</v>
+        <v>10.44717466511408</v>
       </c>
       <c r="E21">
-        <v>14.46535481378471</v>
+        <v>13.90971706275411</v>
       </c>
       <c r="F21">
-        <v>28.14385095858036</v>
+        <v>20.34310383791638</v>
       </c>
       <c r="G21">
-        <v>26.4585360489299</v>
+        <v>19.98710470178979</v>
       </c>
       <c r="H21">
-        <v>13.66369051378196</v>
+        <v>7.170011490198065</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.756598772558226</v>
+        <v>6.823514526327504</v>
       </c>
       <c r="K21">
-        <v>19.81543968302999</v>
+        <v>31.58552069659461</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.49950189277241</v>
+        <v>11.8596071688379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.832926719247244</v>
+        <v>9.629511681829394</v>
       </c>
       <c r="D22">
-        <v>10.59511894832453</v>
+        <v>10.76500340351098</v>
       </c>
       <c r="E22">
-        <v>14.54836559563935</v>
+        <v>14.325053653314</v>
       </c>
       <c r="F22">
-        <v>28.09071412069977</v>
+        <v>20.75843076405963</v>
       </c>
       <c r="G22">
-        <v>26.3568608550505</v>
+        <v>20.52327155169336</v>
       </c>
       <c r="H22">
-        <v>13.61113949423654</v>
+        <v>7.11672176448933</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.759386678595948</v>
+        <v>6.939645347491409</v>
       </c>
       <c r="K22">
-        <v>20.36109997869378</v>
+        <v>32.69874269732706</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.4105303544494</v>
+        <v>11.91851532192773</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.760095360529668</v>
+        <v>9.442812434458832</v>
       </c>
       <c r="D23">
-        <v>10.55284447330691</v>
+        <v>10.59623245071765</v>
       </c>
       <c r="E23">
-        <v>14.50391218968238</v>
+        <v>14.10418245195617</v>
       </c>
       <c r="F23">
-        <v>28.11826675929236</v>
+        <v>20.53416583951574</v>
       </c>
       <c r="G23">
-        <v>26.40995511910209</v>
+        <v>20.23239276157367</v>
       </c>
       <c r="H23">
-        <v>13.63893484831177</v>
+        <v>7.143949282547085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.757768793148294</v>
+        <v>6.87747246607798</v>
       </c>
       <c r="K23">
-        <v>20.07182415947552</v>
+        <v>32.10894807468117</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.45747499681546</v>
+        <v>11.88406803679164</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.477617404048452</v>
+        <v>8.708222677056099</v>
       </c>
       <c r="D24">
-        <v>10.39329054172383</v>
+        <v>9.93831963580015</v>
       </c>
       <c r="E24">
-        <v>14.33893742348516</v>
+        <v>13.25034787679546</v>
       </c>
       <c r="F24">
-        <v>28.24029440808193</v>
+        <v>19.74160582279269</v>
       </c>
       <c r="G24">
-        <v>26.63660084644783</v>
+        <v>19.23435722234704</v>
       </c>
       <c r="H24">
-        <v>13.74973759378157</v>
+        <v>7.272567103811471</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.754500224316843</v>
+        <v>6.646270143620818</v>
       </c>
       <c r="K24">
-        <v>18.9337854329456</v>
+        <v>29.77908848233607</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.64711644907507</v>
+        <v>11.81751960153488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.160456844299305</v>
+        <v>7.855546108603614</v>
       </c>
       <c r="D25">
-        <v>10.22306187677979</v>
+        <v>9.190147472664938</v>
       </c>
       <c r="E25">
-        <v>14.16891812722361</v>
+        <v>12.29475513722804</v>
       </c>
       <c r="F25">
-        <v>28.40926292874204</v>
+        <v>19.00594680812664</v>
       </c>
       <c r="G25">
-        <v>26.93450890247578</v>
+        <v>18.3770516090294</v>
       </c>
       <c r="H25">
-        <v>13.88103629899967</v>
+        <v>7.458693109589766</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.757107497407041</v>
+        <v>6.406414273307925</v>
       </c>
       <c r="K25">
-        <v>17.61892371273724</v>
+        <v>27.05784847117096</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.87671896000701</v>
+        <v>11.8680710757154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.174254094123805</v>
+        <v>4.948792581747662</v>
       </c>
       <c r="D2">
-        <v>8.608230191207852</v>
+        <v>8.537945262662177</v>
       </c>
       <c r="E2">
-        <v>11.56470693156324</v>
+        <v>12.56985279121111</v>
       </c>
       <c r="F2">
-        <v>18.56327957006668</v>
+        <v>22.02026791793352</v>
       </c>
       <c r="G2">
-        <v>17.92725851041132</v>
+        <v>22.98576891982396</v>
       </c>
       <c r="H2">
-        <v>7.630097663923473</v>
+        <v>1.929838662184999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.433699485581877</v>
       </c>
       <c r="J2">
-        <v>6.238447102028357</v>
+        <v>8.906679290758204</v>
       </c>
       <c r="K2">
-        <v>24.8725078088695</v>
+        <v>14.78620955143348</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.366275196859609</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.85946780473937</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.99551895890725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.80067159974476</v>
+      </c>
+      <c r="Q2">
+        <v>14.66680707348667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.678414203160283</v>
+        <v>4.671256469413291</v>
       </c>
       <c r="D3">
-        <v>8.19603583378016</v>
+        <v>8.156505768746241</v>
       </c>
       <c r="E3">
-        <v>11.05580203888458</v>
+        <v>12.0255247619021</v>
       </c>
       <c r="F3">
-        <v>18.32232583765666</v>
+        <v>21.48106248625444</v>
       </c>
       <c r="G3">
-        <v>17.72880630463116</v>
+        <v>22.36258574570132</v>
       </c>
       <c r="H3">
-        <v>7.764869872945765</v>
+        <v>1.723521600576141</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.276780501290235</v>
       </c>
       <c r="J3">
-        <v>6.130240433453412</v>
+        <v>8.886123527545953</v>
       </c>
       <c r="K3">
-        <v>23.27710773584869</v>
+        <v>14.55121877146084</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.169040926737096</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.66834759038644</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.13053938617264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.75538026869781</v>
+      </c>
+      <c r="Q3">
+        <v>14.50910361004883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.356891422245885</v>
+        <v>4.486681916483491</v>
       </c>
       <c r="D4">
-        <v>7.934843894253469</v>
+        <v>7.914242947071743</v>
       </c>
       <c r="E4">
-        <v>10.73736880300261</v>
+        <v>11.67859421267653</v>
       </c>
       <c r="F4">
-        <v>18.20230078593762</v>
+        <v>21.15000458089816</v>
       </c>
       <c r="G4">
-        <v>17.65618799251591</v>
+        <v>21.98146096887718</v>
       </c>
       <c r="H4">
-        <v>7.855969366326583</v>
+        <v>1.591946890699014</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.17705654954077</v>
       </c>
       <c r="J4">
-        <v>6.066653475416783</v>
+        <v>8.876239342328814</v>
       </c>
       <c r="K4">
-        <v>22.24090169726499</v>
+        <v>14.4078876982635</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.044459297192833</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.89209613012867</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.23495513427125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.73034115310352</v>
+      </c>
+      <c r="Q4">
+        <v>14.41696659991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.221539866528553</v>
+        <v>4.394532029242725</v>
       </c>
       <c r="D5">
-        <v>7.826493950469726</v>
+        <v>7.815052454612899</v>
       </c>
       <c r="E5">
-        <v>10.60628414519102</v>
+        <v>11.53461779691096</v>
       </c>
       <c r="F5">
-        <v>18.16019978136604</v>
+        <v>21.00925911534846</v>
       </c>
       <c r="G5">
-        <v>17.63839804488992</v>
+        <v>21.81579276447982</v>
       </c>
       <c r="H5">
-        <v>7.895079393428768</v>
+        <v>1.584879418264159</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.135727460274224</v>
       </c>
       <c r="J5">
-        <v>6.041469620049587</v>
+        <v>8.871181015129292</v>
       </c>
       <c r="K5">
-        <v>21.8043901101615</v>
+        <v>14.34258230396778</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.992591858621489</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.56158094050851</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.28255683140026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.72179323839737</v>
+      </c>
+      <c r="Q5">
+        <v>14.37619791147359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.19880241535863</v>
+        <v>4.362658541779016</v>
       </c>
       <c r="D6">
-        <v>7.808391116389776</v>
+        <v>7.800247261712554</v>
       </c>
       <c r="E6">
-        <v>10.58444358581633</v>
+        <v>11.51110505368685</v>
       </c>
       <c r="F6">
-        <v>18.15361348843889</v>
+        <v>20.97856994498586</v>
       </c>
       <c r="G6">
-        <v>17.63613845164602</v>
+        <v>21.77496674914778</v>
       </c>
       <c r="H6">
-        <v>7.901690425674504</v>
+        <v>1.594645204897655</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.129195295897636</v>
       </c>
       <c r="J6">
-        <v>6.037332144270819</v>
+        <v>8.868298112790619</v>
       </c>
       <c r="K6">
-        <v>21.73104713937204</v>
+        <v>14.32297097824295</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.983610060300316</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.5024579257534</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.29075595101151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.72160351025438</v>
+      </c>
+      <c r="Q6">
+        <v>14.36411831822631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.355083594998104</v>
+        <v>4.441612441725182</v>
       </c>
       <c r="D7">
-        <v>7.93339020993716</v>
+        <v>7.917692620464544</v>
       </c>
       <c r="E7">
-        <v>10.73560604189724</v>
+        <v>11.6782188834231</v>
       </c>
       <c r="F7">
-        <v>18.20170572447045</v>
+        <v>21.12824103961896</v>
       </c>
       <c r="G7">
-        <v>17.65590110517754</v>
+        <v>21.9430518023937</v>
       </c>
       <c r="H7">
-        <v>7.856488917984474</v>
+        <v>1.590391781338911</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.177260439911535</v>
       </c>
       <c r="J7">
-        <v>6.066310874536234</v>
+        <v>8.870488537956572</v>
       </c>
       <c r="K7">
-        <v>22.23507244457113</v>
+        <v>14.38311628491602</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.042902653241525</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.87817703581175</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.23557711739998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.73350694836758</v>
+      </c>
+      <c r="Q7">
+        <v>14.40176659270716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.006811263814079</v>
+        <v>4.801760799494161</v>
       </c>
       <c r="D8">
-        <v>8.467856236166416</v>
+        <v>8.414148255361772</v>
       </c>
       <c r="E8">
-        <v>11.39057421072771</v>
+        <v>12.38685047132111</v>
       </c>
       <c r="F8">
-        <v>18.47428665965267</v>
+        <v>21.80892404984868</v>
       </c>
       <c r="G8">
-        <v>17.84829400138711</v>
+        <v>22.72431698899533</v>
       </c>
       <c r="H8">
-        <v>7.674763176419032</v>
+        <v>1.858674678496439</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.38093801079114</v>
       </c>
       <c r="J8">
-        <v>6.200552488847253</v>
+        <v>8.891545643371646</v>
       </c>
       <c r="K8">
-        <v>24.33415399873154</v>
+        <v>14.67396711824753</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.29793019922481</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.4464301733911</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.03738965972386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.78897339929288</v>
+      </c>
+      <c r="Q8">
+        <v>14.59233908717884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.150972971142599</v>
+        <v>5.466396510162667</v>
       </c>
       <c r="D9">
-        <v>9.447159267166349</v>
+        <v>9.311898730809757</v>
       </c>
       <c r="E9">
-        <v>12.62101815348558</v>
+        <v>13.668343269556</v>
       </c>
       <c r="F9">
-        <v>19.2380882355269</v>
+        <v>23.17161082071168</v>
       </c>
       <c r="G9">
-        <v>18.63698973766662</v>
+        <v>24.32279261309812</v>
       </c>
       <c r="H9">
-        <v>7.390254908163447</v>
+        <v>2.347988821591345</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.753618564897239</v>
       </c>
       <c r="J9">
-        <v>6.485899703446106</v>
+        <v>8.965340475495671</v>
       </c>
       <c r="K9">
-        <v>28.00256536260234</v>
+        <v>15.29156820376434</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.770397144232407</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.18071047462897</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.83600859485325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.91401858087354</v>
+      </c>
+      <c r="Q9">
+        <v>15.02910026857095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.91227564262862</v>
+        <v>5.88101638041699</v>
       </c>
       <c r="D10">
-        <v>10.11999620580551</v>
+        <v>9.828642750284121</v>
       </c>
       <c r="E10">
-        <v>13.48494050416335</v>
+        <v>14.31211112216633</v>
       </c>
       <c r="F10">
-        <v>19.94721969314973</v>
+        <v>24.00328186057345</v>
       </c>
       <c r="G10">
-        <v>19.48782865213462</v>
+        <v>25.32601993785692</v>
       </c>
       <c r="H10">
-        <v>7.233604534591305</v>
+        <v>2.671133030832575</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.008087956500264</v>
       </c>
       <c r="J10">
-        <v>6.70829239011193</v>
+        <v>9.006244176318983</v>
       </c>
       <c r="K10">
-        <v>30.4277021059827</v>
+        <v>15.67899450426086</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.990630523920098</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.93390060316241</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.82527136453898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.03990383858898</v>
+      </c>
+      <c r="Q10">
+        <v>15.30215905909793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.241911534082005</v>
+        <v>6.117856500293918</v>
       </c>
       <c r="D11">
-        <v>10.4152797054264</v>
+        <v>9.210801828615024</v>
       </c>
       <c r="E11">
-        <v>13.86818129752342</v>
+        <v>12.6606146647628</v>
       </c>
       <c r="F11">
-        <v>20.30308351303663</v>
+        <v>23.0645518941918</v>
       </c>
       <c r="G11">
-        <v>19.93605226704826</v>
+        <v>24.44784450304563</v>
       </c>
       <c r="H11">
-        <v>7.175828794913149</v>
+        <v>3.369612119162717</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.084511423856753</v>
       </c>
       <c r="J11">
-        <v>6.812086425926505</v>
+        <v>8.799636445654825</v>
       </c>
       <c r="K11">
-        <v>31.4732000654642</v>
+        <v>15.33510903571828</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.215349855831872</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.37223029097222</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.85509456597833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.26749674521128</v>
+      </c>
+      <c r="Q11">
+        <v>14.85619240408338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.364381220760762</v>
+        <v>6.294698588024403</v>
       </c>
       <c r="D12">
-        <v>10.52550511105646</v>
+        <v>8.571956951105751</v>
       </c>
       <c r="E12">
-        <v>14.01183746341672</v>
+        <v>11.1774429571091</v>
       </c>
       <c r="F12">
-        <v>20.44268236027477</v>
+        <v>22.107626250411</v>
       </c>
       <c r="G12">
-        <v>20.11463402626653</v>
+        <v>23.52407052961262</v>
       </c>
       <c r="H12">
-        <v>7.156083291763064</v>
+        <v>4.488737248205401</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.097249980264783</v>
       </c>
       <c r="J12">
-        <v>6.851757170924226</v>
+        <v>8.62068066577063</v>
       </c>
       <c r="K12">
-        <v>31.86088649700353</v>
+        <v>14.98944333997414</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.598586992524294</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.39616728636766</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.87176735997272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.43290224521666</v>
+      </c>
+      <c r="Q12">
+        <v>14.43321465308852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.338109273184827</v>
+        <v>6.388157914682241</v>
       </c>
       <c r="D13">
-        <v>10.50183741497913</v>
+        <v>7.870395324130842</v>
       </c>
       <c r="E13">
-        <v>13.98096470421179</v>
+        <v>9.734858455140458</v>
       </c>
       <c r="F13">
-        <v>20.41240125222366</v>
+        <v>21.03638769465253</v>
       </c>
       <c r="G13">
-        <v>20.07577962345771</v>
+        <v>22.43963114462562</v>
       </c>
       <c r="H13">
-        <v>7.160237745519628</v>
+        <v>5.727020742525842</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.063446444060547</v>
       </c>
       <c r="J13">
-        <v>6.843197241944789</v>
+        <v>8.442965390448435</v>
       </c>
       <c r="K13">
-        <v>31.77775559285173</v>
+        <v>14.58243940106122</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.08444528460997</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.09323557645363</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.86793135521383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.56280477449854</v>
+      </c>
+      <c r="Q13">
+        <v>13.97668223598711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.252034159085888</v>
+        <v>6.407243357109405</v>
       </c>
       <c r="D14">
-        <v>10.42438010959462</v>
+        <v>7.347216715882726</v>
       </c>
       <c r="E14">
-        <v>13.880029721155</v>
+        <v>8.773350642408793</v>
       </c>
       <c r="F14">
-        <v>20.31447111994558</v>
+        <v>20.22540766904234</v>
       </c>
       <c r="G14">
-        <v>19.95056690749465</v>
+        <v>21.59102724519332</v>
       </c>
       <c r="H14">
-        <v>7.174160414865091</v>
+        <v>6.634817196521078</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.019368025481176</v>
       </c>
       <c r="J14">
-        <v>6.815342881918143</v>
+        <v>8.318142835230075</v>
       </c>
       <c r="K14">
-        <v>31.50525954786274</v>
+        <v>14.26217797685661</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.801921098459995</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.72693447565875</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.85635628141167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.63857078075702</v>
+      </c>
+      <c r="Q14">
+        <v>13.63791360786597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.199005118253094</v>
+        <v>6.379176129942139</v>
       </c>
       <c r="D15">
-        <v>10.37672695925562</v>
+        <v>7.207106013023076</v>
       </c>
       <c r="E15">
-        <v>13.8180112311249</v>
+        <v>8.543540790305812</v>
       </c>
       <c r="F15">
-        <v>20.25511785938695</v>
+        <v>19.9988150040126</v>
       </c>
       <c r="G15">
-        <v>19.87502321034657</v>
+        <v>21.33938357352948</v>
       </c>
       <c r="H15">
-        <v>7.182972206509483</v>
+        <v>6.841865699009678</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.998954231403659</v>
       </c>
       <c r="J15">
-        <v>6.798328662728325</v>
+        <v>8.286865646052229</v>
       </c>
       <c r="K15">
-        <v>31.33727968509731</v>
+        <v>14.16381698738549</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.743955055066987</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.56334801690621</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.84997796527949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.64998179372055</v>
+      </c>
+      <c r="Q15">
+        <v>13.54481194705393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.890401053382336</v>
+        <v>6.175612779009693</v>
       </c>
       <c r="D16">
-        <v>10.10047785136604</v>
+        <v>7.096255354826113</v>
       </c>
       <c r="E16">
-        <v>13.45969239801244</v>
+        <v>8.496597541251862</v>
       </c>
       <c r="F16">
-        <v>19.92463797730169</v>
+        <v>19.81661404509016</v>
       </c>
       <c r="G16">
-        <v>19.45977340753181</v>
+        <v>21.06323188347815</v>
       </c>
       <c r="H16">
-        <v>7.23766791905744</v>
+        <v>6.571442264000465</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.898958744419741</v>
       </c>
       <c r="J16">
-        <v>6.701561034243767</v>
+        <v>8.300908640253656</v>
       </c>
       <c r="K16">
-        <v>30.35822153732737</v>
+        <v>14.05667722239767</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.740295495041457</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>21.88214956021341</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.82405438737804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.56358689697526</v>
+      </c>
+      <c r="Q16">
+        <v>13.50332274273097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.696839100633641</v>
+        <v>6.002926587851003</v>
       </c>
       <c r="D17">
-        <v>9.928211207878947</v>
+        <v>7.297764849680771</v>
       </c>
       <c r="E17">
-        <v>13.23732293122337</v>
+        <v>8.964275263115146</v>
       </c>
       <c r="F17">
-        <v>19.73046823952699</v>
+        <v>20.11658853757221</v>
       </c>
       <c r="G17">
-        <v>19.2207616146846</v>
+        <v>21.31538984619995</v>
       </c>
       <c r="H17">
-        <v>7.274809315819067</v>
+        <v>5.832583122265665</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.845416885481072</v>
       </c>
       <c r="J17">
-        <v>6.642861211790435</v>
+        <v>8.378319188009749</v>
       </c>
       <c r="K17">
-        <v>29.7428728828806</v>
+        <v>14.14722063000263</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.873167462249662</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.5522231236368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.81732259691907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.45814026229055</v>
+      </c>
+      <c r="Q17">
+        <v>13.65381566833279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.583934279686293</v>
+        <v>5.874226252281597</v>
       </c>
       <c r="D18">
-        <v>9.828113639636516</v>
+        <v>7.793218457255795</v>
       </c>
       <c r="E18">
-        <v>13.10850573116856</v>
+        <v>10.01302738664951</v>
       </c>
       <c r="F18">
-        <v>19.62191718452099</v>
+        <v>20.87680071378646</v>
       </c>
       <c r="G18">
-        <v>19.08904867508455</v>
+        <v>22.07043461688673</v>
       </c>
       <c r="H18">
-        <v>7.297428890886618</v>
+        <v>4.653355749847826</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.82577296455169</v>
       </c>
       <c r="J18">
-        <v>6.609346440699833</v>
+        <v>8.521734324442626</v>
       </c>
       <c r="K18">
-        <v>29.38350357976354</v>
+        <v>14.43346708713845</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.217136993766171</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.50482978801792</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.81669514323963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.32262383869053</v>
+      </c>
+      <c r="Q18">
+        <v>13.99392814280302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.545435187983832</v>
+        <v>5.72792888134547</v>
       </c>
       <c r="D19">
-        <v>9.794049523892861</v>
+        <v>8.495480204980645</v>
       </c>
       <c r="E19">
-        <v>13.06473537637089</v>
+        <v>11.53143173584972</v>
       </c>
       <c r="F19">
-        <v>19.58569925893915</v>
+        <v>21.91408112409318</v>
       </c>
       <c r="G19">
-        <v>19.04543938180463</v>
+        <v>23.10337174541055</v>
       </c>
       <c r="H19">
-        <v>7.305297675772652</v>
+        <v>3.380453424583787</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.841202238044611</v>
       </c>
       <c r="J19">
-        <v>6.598041856261114</v>
+        <v>8.697624685116189</v>
       </c>
       <c r="K19">
-        <v>29.26089127052587</v>
+        <v>14.81250419891821</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.798060849683056</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.67529740842645</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.81702780956316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.18267709219684</v>
+      </c>
+      <c r="Q19">
+        <v>14.43468337724485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.717606606443084</v>
+        <v>5.66836341720739</v>
       </c>
       <c r="D20">
-        <v>9.946654595312427</v>
+        <v>9.703353815606155</v>
       </c>
       <c r="E20">
-        <v>13.2610898902069</v>
+        <v>14.14012604177666</v>
       </c>
       <c r="F20">
-        <v>19.75081350597086</v>
+        <v>23.72367091593935</v>
       </c>
       <c r="G20">
-        <v>19.24560803063755</v>
+        <v>24.956554329842</v>
       </c>
       <c r="H20">
-        <v>7.270724114731964</v>
+        <v>2.583639461287079</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.94605813789215</v>
       </c>
       <c r="J20">
-        <v>6.649084349291245</v>
+        <v>8.976168919389737</v>
       </c>
       <c r="K20">
-        <v>29.80893997498805</v>
+        <v>15.50565051491402</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.926652955924329</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.46298417647934</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.81770054051576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.01782024484921</v>
+      </c>
+      <c r="Q20">
+        <v>15.18302065233841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.277380103039819</v>
+        <v>5.973196462119528</v>
       </c>
       <c r="D21">
-        <v>10.44717466511408</v>
+        <v>10.23559361064647</v>
       </c>
       <c r="E21">
-        <v>13.90971706275411</v>
+        <v>14.96659325008447</v>
       </c>
       <c r="F21">
-        <v>20.34310383791638</v>
+        <v>24.6003847262231</v>
       </c>
       <c r="G21">
-        <v>19.98710470178979</v>
+        <v>25.97671654279175</v>
       </c>
       <c r="H21">
-        <v>7.170011490198065</v>
+        <v>2.847919626690554</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.143234028398099</v>
       </c>
       <c r="J21">
-        <v>6.823514526327504</v>
+        <v>9.055231124144861</v>
       </c>
       <c r="K21">
-        <v>31.58552069659461</v>
+        <v>15.90525977967076</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.25598066010072</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>23.80152847795645</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.8596071688379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.08916427184304</v>
+      </c>
+      <c r="Q21">
+        <v>15.50819209856519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.629511681829394</v>
+        <v>6.207995725319883</v>
       </c>
       <c r="D22">
-        <v>10.76500340351098</v>
+        <v>10.51837901483285</v>
       </c>
       <c r="E22">
-        <v>14.325053653314</v>
+        <v>15.3733232298407</v>
       </c>
       <c r="F22">
-        <v>20.75843076405963</v>
+        <v>25.11456602315758</v>
       </c>
       <c r="G22">
-        <v>20.52327155169336</v>
+        <v>26.60257928788686</v>
       </c>
       <c r="H22">
-        <v>7.11672176448933</v>
+        <v>3.009916228646738</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.265588232664717</v>
       </c>
       <c r="J22">
-        <v>6.939645347491409</v>
+        <v>9.104059790292315</v>
       </c>
       <c r="K22">
-        <v>32.69874269732706</v>
+        <v>16.1648067295349</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.413111879633334</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.62781728198322</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.91851532192773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>13.14293851488656</v>
+      </c>
+      <c r="Q22">
+        <v>15.70955393195516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.442812434458832</v>
+        <v>6.122736923091723</v>
       </c>
       <c r="D23">
-        <v>10.59623245071765</v>
+        <v>10.36386244655718</v>
       </c>
       <c r="E23">
-        <v>14.10418245195617</v>
+        <v>15.15599548944243</v>
       </c>
       <c r="F23">
-        <v>20.53416583951574</v>
+        <v>24.86072598159148</v>
       </c>
       <c r="G23">
-        <v>20.23239276157367</v>
+        <v>26.30515574591345</v>
       </c>
       <c r="H23">
-        <v>7.143949282547085</v>
+        <v>2.92460074492951</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.198900725189405</v>
       </c>
       <c r="J23">
-        <v>6.87747246607798</v>
+        <v>9.084191938928278</v>
       </c>
       <c r="K23">
-        <v>32.10894807468117</v>
+        <v>16.05186059213107</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.330433694355778</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.19861947019765</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.88406803679164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.10967697088642</v>
+      </c>
+      <c r="Q23">
+        <v>15.61768231692491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.708222677056099</v>
+        <v>5.715874140973305</v>
       </c>
       <c r="D24">
-        <v>9.93831963580015</v>
+        <v>9.766933150277888</v>
       </c>
       <c r="E24">
-        <v>13.25034787679546</v>
+        <v>14.30782758641915</v>
       </c>
       <c r="F24">
-        <v>19.74160582279269</v>
+        <v>23.86013515543008</v>
       </c>
       <c r="G24">
-        <v>19.23435722234704</v>
+        <v>25.11623745776373</v>
       </c>
       <c r="H24">
-        <v>7.272567103811471</v>
+        <v>2.592745156018133</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.943549247062323</v>
       </c>
       <c r="J24">
-        <v>6.646270143620818</v>
+        <v>9.004894040790717</v>
       </c>
       <c r="K24">
-        <v>29.77908848233607</v>
+        <v>15.58373940167744</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.00812387634676</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.48238013631031</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.81751960153488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.99600663523775</v>
+      </c>
+      <c r="Q24">
+        <v>15.25337896852459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.855546108603614</v>
+        <v>5.230959820367433</v>
       </c>
       <c r="D25">
-        <v>9.190147472664938</v>
+        <v>9.084396152045294</v>
       </c>
       <c r="E25">
-        <v>12.29475513722804</v>
+        <v>13.33608232493245</v>
       </c>
       <c r="F25">
-        <v>19.00594680812664</v>
+        <v>22.77116688256729</v>
       </c>
       <c r="G25">
-        <v>18.3770516090294</v>
+        <v>23.83056198619954</v>
       </c>
       <c r="H25">
-        <v>7.458693109589766</v>
+        <v>2.218269630230904</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.657223313444899</v>
       </c>
       <c r="J25">
-        <v>6.406414273307925</v>
+        <v>8.932774709365779</v>
       </c>
       <c r="K25">
-        <v>27.05784847117096</v>
+        <v>15.0829887098335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.644505083253353</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.46466411766049</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.8680710757154</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.88409723775347</v>
+      </c>
+      <c r="Q25">
+        <v>14.88140956389883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.948792581747662</v>
+        <v>3.723758032583609</v>
       </c>
       <c r="D2">
-        <v>8.537945262662177</v>
+        <v>8.659888506832313</v>
       </c>
       <c r="E2">
-        <v>12.56985279121111</v>
+        <v>12.60584998300464</v>
       </c>
       <c r="F2">
-        <v>22.02026791793352</v>
+        <v>21.49710097699346</v>
       </c>
       <c r="G2">
-        <v>22.98576891982396</v>
+        <v>21.4033735684623</v>
       </c>
       <c r="H2">
-        <v>1.929838662184999</v>
+        <v>1.90226704148914</v>
       </c>
       <c r="I2">
-        <v>3.433699485581877</v>
+        <v>3.410403846467401</v>
       </c>
       <c r="J2">
-        <v>8.906679290758204</v>
+        <v>9.245305725371059</v>
       </c>
       <c r="K2">
-        <v>14.78620955143348</v>
+        <v>14.10515866641702</v>
       </c>
       <c r="L2">
-        <v>7.366275196859609</v>
+        <v>12.70700119185737</v>
       </c>
       <c r="M2">
-        <v>18.85946780473937</v>
+        <v>8.385783798767259</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.340915568257792</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.61111279342122</v>
       </c>
       <c r="P2">
-        <v>12.80067159974476</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.66680707348667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.90339917044918</v>
+      </c>
+      <c r="S2">
+        <v>14.28194286664186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.671256469413291</v>
+        <v>3.562387668519244</v>
       </c>
       <c r="D3">
-        <v>8.156505768746241</v>
+        <v>8.26590746975539</v>
       </c>
       <c r="E3">
-        <v>12.0255247619021</v>
+        <v>12.06221739816395</v>
       </c>
       <c r="F3">
-        <v>21.48106248625444</v>
+        <v>21.02646715071728</v>
       </c>
       <c r="G3">
-        <v>22.36258574570132</v>
+        <v>20.90740238109322</v>
       </c>
       <c r="H3">
-        <v>1.723521600576141</v>
+        <v>1.706126444829131</v>
       </c>
       <c r="I3">
-        <v>3.276780501290235</v>
+        <v>3.274345840519487</v>
       </c>
       <c r="J3">
-        <v>8.886123527545953</v>
+        <v>9.214930742803348</v>
       </c>
       <c r="K3">
-        <v>14.55121877146084</v>
+        <v>13.94755488153261</v>
       </c>
       <c r="L3">
-        <v>7.169040926737096</v>
+        <v>12.75786608510721</v>
       </c>
       <c r="M3">
-        <v>17.66834759038644</v>
+        <v>8.051050974541893</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.150079537648939</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.45651263255047</v>
       </c>
       <c r="P3">
-        <v>12.75538026869781</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.50910361004883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.8339411877868</v>
+      </c>
+      <c r="S3">
+        <v>14.17294538701773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.486681916483491</v>
+        <v>3.453208435436935</v>
       </c>
       <c r="D4">
-        <v>7.914242947071743</v>
+        <v>8.015817386287184</v>
       </c>
       <c r="E4">
-        <v>11.67859421267653</v>
+        <v>11.71594861149344</v>
       </c>
       <c r="F4">
-        <v>21.15000458089816</v>
+        <v>20.73744756623183</v>
       </c>
       <c r="G4">
-        <v>21.98146096887718</v>
+        <v>20.60741381737711</v>
       </c>
       <c r="H4">
-        <v>1.591946890699014</v>
+        <v>1.580970820320881</v>
       </c>
       <c r="I4">
-        <v>3.17705654954077</v>
+        <v>3.187960458475597</v>
       </c>
       <c r="J4">
-        <v>8.876239342328814</v>
+        <v>9.197162131199844</v>
       </c>
       <c r="K4">
-        <v>14.4078876982635</v>
+        <v>13.85094576005162</v>
       </c>
       <c r="L4">
-        <v>7.044459297192833</v>
+        <v>12.7873387595538</v>
       </c>
       <c r="M4">
-        <v>16.89209613012867</v>
+        <v>7.862034343434107</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.029605897897265</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.70403858261403</v>
       </c>
       <c r="P4">
-        <v>12.73034115310352</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.41696659991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.79416864323657</v>
+      </c>
+      <c r="S4">
+        <v>14.1098932482795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.394532029242725</v>
+        <v>3.393554284262351</v>
       </c>
       <c r="D5">
-        <v>7.815052454612899</v>
+        <v>7.91341596838414</v>
       </c>
       <c r="E5">
-        <v>11.53461779691096</v>
+        <v>11.57231820648378</v>
       </c>
       <c r="F5">
-        <v>21.00925911534846</v>
+        <v>20.61391398380554</v>
       </c>
       <c r="G5">
-        <v>21.81579276447982</v>
+        <v>20.47561978923675</v>
       </c>
       <c r="H5">
-        <v>1.584879418264159</v>
+        <v>1.593383594789223</v>
       </c>
       <c r="I5">
-        <v>3.135727460274224</v>
+        <v>3.152457668932309</v>
       </c>
       <c r="J5">
-        <v>8.871181015129292</v>
+        <v>9.188482663841327</v>
       </c>
       <c r="K5">
-        <v>14.34258230396778</v>
+        <v>13.80479414827942</v>
       </c>
       <c r="L5">
-        <v>6.992591858621489</v>
+        <v>12.79331217034885</v>
       </c>
       <c r="M5">
-        <v>16.56158094050851</v>
+        <v>7.784772735856175</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.979467265279599</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.38361035759637</v>
       </c>
       <c r="P5">
-        <v>12.72179323839737</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.37619791147359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.77966668617048</v>
+      </c>
+      <c r="S5">
+        <v>14.08091399483371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.362658541779016</v>
+        <v>3.368137035304255</v>
       </c>
       <c r="D6">
-        <v>7.800247261712554</v>
+        <v>7.898075875665556</v>
       </c>
       <c r="E6">
-        <v>11.51110505368685</v>
+        <v>11.54887927445627</v>
       </c>
       <c r="F6">
-        <v>20.97856994498586</v>
+        <v>20.58624553238323</v>
       </c>
       <c r="G6">
-        <v>21.77496674914778</v>
+        <v>20.44062652669228</v>
       </c>
       <c r="H6">
-        <v>1.594645204897655</v>
+        <v>1.602669824754406</v>
       </c>
       <c r="I6">
-        <v>3.129195295897636</v>
+        <v>3.147249662278032</v>
       </c>
       <c r="J6">
-        <v>8.868298112790619</v>
+        <v>9.185027894410332</v>
       </c>
       <c r="K6">
-        <v>14.32297097824295</v>
+        <v>13.78877380424051</v>
       </c>
       <c r="L6">
-        <v>6.983610060300316</v>
+        <v>12.78745323602283</v>
       </c>
       <c r="M6">
-        <v>16.5024579257534</v>
+        <v>7.766240972640618</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.97078752626613</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.3262453964321</v>
       </c>
       <c r="P6">
-        <v>12.72160351025438</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.36411831822631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.77851142510967</v>
+      </c>
+      <c r="S6">
+        <v>14.07097178544865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.441612441725182</v>
+        <v>3.415168444861699</v>
       </c>
       <c r="D7">
-        <v>7.917692620464544</v>
+        <v>8.022130705327967</v>
       </c>
       <c r="E7">
-        <v>11.6782188834231</v>
+        <v>11.71657319993603</v>
       </c>
       <c r="F7">
-        <v>21.12824103961896</v>
+        <v>20.70457159917198</v>
       </c>
       <c r="G7">
-        <v>21.9430518023937</v>
+        <v>20.6596887560986</v>
       </c>
       <c r="H7">
-        <v>1.590391781338911</v>
+        <v>1.579039719640744</v>
       </c>
       <c r="I7">
-        <v>3.177260439911535</v>
+        <v>3.18864850075863</v>
       </c>
       <c r="J7">
-        <v>8.870488537956572</v>
+        <v>9.154677199805352</v>
       </c>
       <c r="K7">
-        <v>14.38311628491602</v>
+        <v>13.82041552545032</v>
       </c>
       <c r="L7">
-        <v>7.042902653241525</v>
+        <v>12.76342757245995</v>
       </c>
       <c r="M7">
-        <v>16.87817703581175</v>
+        <v>7.838915849972834</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.027599384831094</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.68472144720085</v>
       </c>
       <c r="P7">
-        <v>12.73350694836758</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.40176659270716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.79935733786691</v>
+      </c>
+      <c r="S7">
+        <v>14.08682322808049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.801760799494161</v>
+        <v>3.631658382279908</v>
       </c>
       <c r="D8">
-        <v>8.414148255361772</v>
+        <v>8.540983832358945</v>
       </c>
       <c r="E8">
-        <v>12.38685047132111</v>
+        <v>12.4261975984605</v>
       </c>
       <c r="F8">
-        <v>21.80892404984868</v>
+        <v>21.27189173024905</v>
       </c>
       <c r="G8">
-        <v>22.72431698899533</v>
+        <v>21.47659908445401</v>
       </c>
       <c r="H8">
-        <v>1.858674678496439</v>
+        <v>1.833208270348281</v>
       </c>
       <c r="I8">
-        <v>3.38093801079114</v>
+        <v>3.364331691134431</v>
       </c>
       <c r="J8">
-        <v>8.891545643371646</v>
+        <v>9.107211322404689</v>
       </c>
       <c r="K8">
-        <v>14.67396711824753</v>
+        <v>13.99794913708451</v>
       </c>
       <c r="L8">
-        <v>7.29793019922481</v>
+        <v>12.6847430160523</v>
       </c>
       <c r="M8">
-        <v>18.4464301733911</v>
+        <v>8.22543184119597</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.273203231687518</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.19307965734562</v>
       </c>
       <c r="P8">
-        <v>12.78897339929288</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.59233908717884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.89045668602102</v>
+      </c>
+      <c r="S8">
+        <v>14.19708062431671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.466396510162667</v>
+        <v>4.02893048410938</v>
       </c>
       <c r="D9">
-        <v>9.311898730809757</v>
+        <v>9.470455350037813</v>
       </c>
       <c r="E9">
-        <v>13.668343269556</v>
+        <v>13.7075489939699</v>
       </c>
       <c r="F9">
-        <v>23.17161082071168</v>
+        <v>22.45613446498164</v>
       </c>
       <c r="G9">
-        <v>24.32279261309812</v>
+        <v>22.83725899028559</v>
       </c>
       <c r="H9">
-        <v>2.347988821591345</v>
+        <v>2.29772119267558</v>
       </c>
       <c r="I9">
-        <v>3.753618564897239</v>
+        <v>3.686579929784899</v>
       </c>
       <c r="J9">
-        <v>8.965340475495671</v>
+        <v>9.162684960103707</v>
       </c>
       <c r="K9">
-        <v>15.29156820376434</v>
+        <v>14.41263803774764</v>
       </c>
       <c r="L9">
-        <v>7.770397144232407</v>
+        <v>12.56722416963134</v>
       </c>
       <c r="M9">
-        <v>21.18071047462897</v>
+        <v>9.144849976650866</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.730415452504801</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.84101599507308</v>
       </c>
       <c r="P9">
-        <v>12.91401858087354</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.02910026857095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>13.07831156371734</v>
+      </c>
+      <c r="S9">
+        <v>14.50090503734022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.88101638041699</v>
+        <v>4.294254267840461</v>
       </c>
       <c r="D10">
-        <v>9.828642750284121</v>
+        <v>10.02155691686298</v>
       </c>
       <c r="E10">
-        <v>14.31211112216633</v>
+        <v>14.35564487956353</v>
       </c>
       <c r="F10">
-        <v>24.00328186057345</v>
+        <v>23.105576531094</v>
       </c>
       <c r="G10">
-        <v>25.32601993785692</v>
+        <v>24.15896649547215</v>
       </c>
       <c r="H10">
-        <v>2.671133030832575</v>
+        <v>2.60185393396724</v>
       </c>
       <c r="I10">
-        <v>4.008087956500264</v>
+        <v>3.90533735053722</v>
       </c>
       <c r="J10">
-        <v>9.006244176318983</v>
+        <v>8.983598807057</v>
       </c>
       <c r="K10">
-        <v>15.67899450426086</v>
+        <v>14.62007984502304</v>
       </c>
       <c r="L10">
-        <v>7.990630523920098</v>
+        <v>12.40719606821103</v>
       </c>
       <c r="M10">
-        <v>22.93390060316241</v>
+        <v>9.776522391119798</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.938278798988605</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>22.51362507711652</v>
       </c>
       <c r="P10">
-        <v>13.03990383858898</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.30215905909793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>13.26295613512391</v>
+      </c>
+      <c r="S10">
+        <v>14.63262484998604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.117856500293918</v>
+        <v>4.554802324289396</v>
       </c>
       <c r="D11">
-        <v>9.210801828615024</v>
+        <v>9.428345609971993</v>
       </c>
       <c r="E11">
-        <v>12.6606146647628</v>
+        <v>12.7026671055104</v>
       </c>
       <c r="F11">
-        <v>23.0645518941918</v>
+        <v>22.04482801230581</v>
       </c>
       <c r="G11">
-        <v>24.44784450304563</v>
+        <v>24.29677702727945</v>
       </c>
       <c r="H11">
-        <v>3.369612119162717</v>
+        <v>3.308820793214077</v>
       </c>
       <c r="I11">
-        <v>4.084511423856753</v>
+        <v>3.969549893128747</v>
       </c>
       <c r="J11">
-        <v>8.799636445654825</v>
+        <v>8.414119140075904</v>
       </c>
       <c r="K11">
-        <v>15.33510903571828</v>
+        <v>14.20264039083398</v>
       </c>
       <c r="L11">
-        <v>7.215349855831872</v>
+        <v>11.99414993743076</v>
       </c>
       <c r="M11">
-        <v>23.37223029097222</v>
+        <v>9.626042735316046</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.156769660181357</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.89211564062267</v>
       </c>
       <c r="P11">
-        <v>13.26749674521128</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.85619240408338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>13.53753326569762</v>
+      </c>
+      <c r="S11">
+        <v>14.09486683223746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.294698588024403</v>
+        <v>4.771244895784459</v>
       </c>
       <c r="D12">
-        <v>8.571956951105751</v>
+        <v>8.793202349504297</v>
       </c>
       <c r="E12">
-        <v>11.1774429571091</v>
+        <v>11.21023206602153</v>
       </c>
       <c r="F12">
-        <v>22.107626250411</v>
+        <v>21.063434758463</v>
       </c>
       <c r="G12">
-        <v>23.52407052961262</v>
+        <v>23.87662449665217</v>
       </c>
       <c r="H12">
-        <v>4.488737248205401</v>
+        <v>4.442899302310426</v>
       </c>
       <c r="I12">
-        <v>4.097249980264783</v>
+        <v>3.978771705757929</v>
       </c>
       <c r="J12">
-        <v>8.62068066577063</v>
+        <v>8.121097320105598</v>
       </c>
       <c r="K12">
-        <v>14.98944333997414</v>
+        <v>13.85707222492249</v>
       </c>
       <c r="L12">
-        <v>6.598586992524294</v>
+        <v>11.7195379026982</v>
       </c>
       <c r="M12">
-        <v>23.39616728636766</v>
+        <v>9.403989737896371</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.539526999929608</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.89718302730806</v>
       </c>
       <c r="P12">
-        <v>13.43290224521666</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.43321465308852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.72220159024818</v>
+      </c>
+      <c r="S12">
+        <v>13.65554434963579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.388157914682241</v>
+        <v>4.917544912947402</v>
       </c>
       <c r="D13">
-        <v>7.870395324130842</v>
+        <v>8.073464742364314</v>
       </c>
       <c r="E13">
-        <v>9.734858455140458</v>
+        <v>9.749553122005317</v>
       </c>
       <c r="F13">
-        <v>21.03638769465253</v>
+        <v>20.06768135199289</v>
       </c>
       <c r="G13">
-        <v>22.43963114462562</v>
+        <v>22.72792784684458</v>
       </c>
       <c r="H13">
-        <v>5.727020742525842</v>
+        <v>5.693650875398043</v>
       </c>
       <c r="I13">
-        <v>4.063446444060547</v>
+        <v>3.950074493313126</v>
       </c>
       <c r="J13">
-        <v>8.442965390448435</v>
+        <v>8.043123521028846</v>
       </c>
       <c r="K13">
-        <v>14.58243940106122</v>
+        <v>13.52551520914944</v>
       </c>
       <c r="L13">
-        <v>6.08444528460997</v>
+        <v>11.51482147048473</v>
       </c>
       <c r="M13">
-        <v>23.09323557645363</v>
+        <v>9.096387070513495</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.030422263604741</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.6164521201203</v>
       </c>
       <c r="P13">
-        <v>13.56280477449854</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.97668223598711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.84375090212072</v>
+      </c>
+      <c r="S13">
+        <v>13.26009494751466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.407243357109405</v>
+        <v>4.98166802946847</v>
       </c>
       <c r="D14">
-        <v>7.347216715882726</v>
+        <v>7.527770005678848</v>
       </c>
       <c r="E14">
-        <v>8.773350642408793</v>
+        <v>8.771305053669613</v>
       </c>
       <c r="F14">
-        <v>20.22540766904234</v>
+        <v>19.3533172485816</v>
       </c>
       <c r="G14">
-        <v>21.59102724519332</v>
+        <v>21.58807905631944</v>
       </c>
       <c r="H14">
-        <v>6.634817196521078</v>
+        <v>6.60848435654785</v>
       </c>
       <c r="I14">
-        <v>4.019368025481176</v>
+        <v>3.91372876563116</v>
       </c>
       <c r="J14">
-        <v>8.318142835230075</v>
+        <v>8.070055373231268</v>
       </c>
       <c r="K14">
-        <v>14.26217797685661</v>
+        <v>13.29143305132605</v>
       </c>
       <c r="L14">
-        <v>5.801921098459995</v>
+        <v>11.39557334523191</v>
       </c>
       <c r="M14">
-        <v>22.72693447565875</v>
+        <v>8.835368470347667</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.753976460794817</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.28415892265934</v>
       </c>
       <c r="P14">
-        <v>13.63857078075702</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.63791360786597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.90105854601003</v>
+      </c>
+      <c r="S14">
+        <v>12.99727494312645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.379176129942139</v>
+        <v>4.968539468074309</v>
       </c>
       <c r="D15">
-        <v>7.207106013023076</v>
+        <v>7.37828517631174</v>
       </c>
       <c r="E15">
-        <v>8.543540790305812</v>
+        <v>8.536811769556394</v>
       </c>
       <c r="F15">
-        <v>19.9988150040126</v>
+        <v>19.16881261580005</v>
       </c>
       <c r="G15">
-        <v>21.33938357352948</v>
+        <v>21.16183175953153</v>
       </c>
       <c r="H15">
-        <v>6.841865699009678</v>
+        <v>6.817422096926457</v>
       </c>
       <c r="I15">
-        <v>3.998954231403659</v>
+        <v>3.897504123737383</v>
       </c>
       <c r="J15">
-        <v>8.286865646052229</v>
+        <v>8.11138343493211</v>
       </c>
       <c r="K15">
-        <v>14.16381698738549</v>
+        <v>13.22876457488478</v>
       </c>
       <c r="L15">
-        <v>5.743955055066987</v>
+        <v>11.37416712923561</v>
       </c>
       <c r="M15">
-        <v>22.56334801690621</v>
+        <v>8.746699566364612</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.698365214080701</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>22.13700617682321</v>
       </c>
       <c r="P15">
-        <v>13.64998179372055</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.54481194705393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.90250777639251</v>
+      </c>
+      <c r="S15">
+        <v>12.93685133797352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.175612779009693</v>
+        <v>4.795819888720778</v>
       </c>
       <c r="D16">
-        <v>7.096255354826113</v>
+        <v>7.235792760432005</v>
       </c>
       <c r="E16">
-        <v>8.496597541251862</v>
+        <v>8.488346923214008</v>
       </c>
       <c r="F16">
-        <v>19.81661404509016</v>
+        <v>19.14059837643054</v>
       </c>
       <c r="G16">
-        <v>21.06323188347815</v>
+        <v>20.04534320928989</v>
       </c>
       <c r="H16">
-        <v>6.571442264000465</v>
+        <v>6.550969198882729</v>
       </c>
       <c r="I16">
-        <v>3.898958744419741</v>
+        <v>3.815407454856089</v>
       </c>
       <c r="J16">
-        <v>8.300908640253656</v>
+        <v>8.435415489272529</v>
       </c>
       <c r="K16">
-        <v>14.05667722239767</v>
+        <v>13.24260362866131</v>
       </c>
       <c r="L16">
-        <v>5.740295495041457</v>
+        <v>11.49173685068548</v>
       </c>
       <c r="M16">
-        <v>21.88214956021341</v>
+        <v>8.57007587967678</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.701682480702411</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.52526658805679</v>
       </c>
       <c r="P16">
-        <v>13.56358689697526</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.50332274273097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.76947890439529</v>
+      </c>
+      <c r="S16">
+        <v>13.01245845499989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.002926587851003</v>
+        <v>4.62695504018963</v>
       </c>
       <c r="D17">
-        <v>7.297764849680771</v>
+        <v>7.42837650927209</v>
       </c>
       <c r="E17">
-        <v>8.964275263115146</v>
+        <v>8.963334105524419</v>
       </c>
       <c r="F17">
-        <v>20.11658853757221</v>
+        <v>19.49239197426765</v>
       </c>
       <c r="G17">
-        <v>21.31538984619995</v>
+        <v>19.93275592486468</v>
       </c>
       <c r="H17">
-        <v>5.832583122265665</v>
+        <v>5.812091991258216</v>
       </c>
       <c r="I17">
-        <v>3.845416885481072</v>
+        <v>3.771096530238948</v>
       </c>
       <c r="J17">
-        <v>8.378319188009749</v>
+        <v>8.643543186879747</v>
       </c>
       <c r="K17">
-        <v>14.14722063000263</v>
+        <v>13.37029286039165</v>
       </c>
       <c r="L17">
-        <v>5.873167462249662</v>
+        <v>11.64416296715113</v>
       </c>
       <c r="M17">
-        <v>21.5522231236368</v>
+        <v>8.567284950583694</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.836545475349575</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.22370550109844</v>
       </c>
       <c r="P17">
-        <v>13.45814026229055</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.65381566833279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.64275230996276</v>
+      </c>
+      <c r="S17">
+        <v>13.20145303374602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.874226252281597</v>
+        <v>4.470761291369846</v>
       </c>
       <c r="D18">
-        <v>7.793218457255795</v>
+        <v>7.92762765171684</v>
       </c>
       <c r="E18">
-        <v>10.01302738664951</v>
+        <v>10.02391873943407</v>
       </c>
       <c r="F18">
-        <v>20.87680071378646</v>
+        <v>20.24578972790557</v>
       </c>
       <c r="G18">
-        <v>22.07043461688673</v>
+        <v>20.50573861381113</v>
       </c>
       <c r="H18">
-        <v>4.653355749847826</v>
+        <v>4.628344854385414</v>
       </c>
       <c r="I18">
-        <v>3.82577296455169</v>
+        <v>3.753576295214875</v>
       </c>
       <c r="J18">
-        <v>8.521734324442626</v>
+        <v>8.83030636750031</v>
       </c>
       <c r="K18">
-        <v>14.43346708713845</v>
+        <v>13.64011267550002</v>
       </c>
       <c r="L18">
-        <v>6.217136993766171</v>
+        <v>11.86651031366496</v>
       </c>
       <c r="M18">
-        <v>21.50482978801792</v>
+        <v>8.735634088514908</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.179509953566707</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>21.18112769865355</v>
       </c>
       <c r="P18">
-        <v>13.32262383869053</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.99392814280302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.49924286523521</v>
+      </c>
+      <c r="S18">
+        <v>13.53498564220774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.72792888134547</v>
+        <v>4.279563914960225</v>
       </c>
       <c r="D19">
-        <v>8.495480204980645</v>
+        <v>8.640792034585935</v>
       </c>
       <c r="E19">
-        <v>11.53143173584972</v>
+        <v>11.55451759049871</v>
       </c>
       <c r="F19">
-        <v>21.91408112409318</v>
+        <v>21.24106571030874</v>
       </c>
       <c r="G19">
-        <v>23.10337174541055</v>
+        <v>21.44297514260856</v>
       </c>
       <c r="H19">
-        <v>3.380453424583787</v>
+        <v>3.343889914680431</v>
       </c>
       <c r="I19">
-        <v>3.841202238044611</v>
+        <v>3.767549032758234</v>
       </c>
       <c r="J19">
-        <v>8.697624685116189</v>
+        <v>9.001984789802354</v>
       </c>
       <c r="K19">
-        <v>14.81250419891821</v>
+        <v>13.97010051060568</v>
       </c>
       <c r="L19">
-        <v>6.798060849683056</v>
+        <v>12.10646077575254</v>
       </c>
       <c r="M19">
-        <v>21.67529740842645</v>
+        <v>8.997129965585126</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.75789420359468</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.34136526751117</v>
       </c>
       <c r="P19">
-        <v>13.18267709219684</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.43468337724485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13.35984956276646</v>
+      </c>
+      <c r="S19">
+        <v>13.9422793299066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.66836341720739</v>
+        <v>4.121763326081201</v>
       </c>
       <c r="D20">
-        <v>9.703353815606155</v>
+        <v>9.878645469688587</v>
       </c>
       <c r="E20">
-        <v>14.14012604177666</v>
+        <v>14.17951329683378</v>
       </c>
       <c r="F20">
-        <v>23.72367091593935</v>
+        <v>22.91307034780653</v>
       </c>
       <c r="G20">
-        <v>24.956554329842</v>
+        <v>23.41759717182214</v>
       </c>
       <c r="H20">
-        <v>2.583639461287079</v>
+        <v>2.520787131554294</v>
       </c>
       <c r="I20">
-        <v>3.94605813789215</v>
+        <v>3.857106450835348</v>
       </c>
       <c r="J20">
-        <v>8.976168919389737</v>
+        <v>9.136894519400853</v>
       </c>
       <c r="K20">
-        <v>15.50565051491402</v>
+        <v>14.52215751054232</v>
       </c>
       <c r="L20">
-        <v>7.926652955924329</v>
+        <v>12.41947320882331</v>
       </c>
       <c r="M20">
-        <v>22.46298417647934</v>
+        <v>9.572520259981625</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.879066715472007</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>22.07966840742549</v>
       </c>
       <c r="P20">
-        <v>13.01782024484921</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.18302065233841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>13.21754821198431</v>
+      </c>
+      <c r="S20">
+        <v>14.58201840153218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.973196462119528</v>
+        <v>4.359571143552875</v>
       </c>
       <c r="D21">
-        <v>10.23559361064647</v>
+        <v>10.48387536374031</v>
       </c>
       <c r="E21">
-        <v>14.96659325008447</v>
+        <v>15.0273319650394</v>
       </c>
       <c r="F21">
-        <v>24.6003847262231</v>
+        <v>23.44300026088084</v>
       </c>
       <c r="G21">
-        <v>25.97671654279175</v>
+        <v>26.1817263936918</v>
       </c>
       <c r="H21">
-        <v>2.847919626690554</v>
+        <v>2.763350183389879</v>
       </c>
       <c r="I21">
-        <v>4.143234028398099</v>
+        <v>4.0193434555684</v>
       </c>
       <c r="J21">
-        <v>9.055231124144861</v>
+        <v>8.435050251183087</v>
       </c>
       <c r="K21">
-        <v>15.90525977967076</v>
+        <v>14.64523580366747</v>
       </c>
       <c r="L21">
-        <v>8.25598066010072</v>
+        <v>12.27458618403594</v>
       </c>
       <c r="M21">
-        <v>23.80152847795645</v>
+        <v>10.03120252985655</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.191303956082384</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>23.27504139507528</v>
       </c>
       <c r="P21">
-        <v>13.08916427184304</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.50819209856519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>13.37776837955303</v>
+      </c>
+      <c r="S21">
+        <v>14.63529505562852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.207995725319883</v>
+        <v>4.555789758330359</v>
       </c>
       <c r="D22">
-        <v>10.51837901483285</v>
+        <v>10.81559106951925</v>
       </c>
       <c r="E22">
-        <v>15.3733232298407</v>
+        <v>15.4487591505185</v>
       </c>
       <c r="F22">
-        <v>25.11456602315758</v>
+        <v>23.72185456311653</v>
       </c>
       <c r="G22">
-        <v>26.60257928788686</v>
+        <v>28.05054566765974</v>
       </c>
       <c r="H22">
-        <v>3.009916228646738</v>
+        <v>2.911636644099149</v>
       </c>
       <c r="I22">
-        <v>4.265588232664717</v>
+        <v>4.118451441457341</v>
       </c>
       <c r="J22">
-        <v>9.104059790292315</v>
+        <v>7.990564453674214</v>
       </c>
       <c r="K22">
-        <v>16.1648067295349</v>
+        <v>14.71737440163474</v>
       </c>
       <c r="L22">
-        <v>8.413111879633334</v>
+        <v>12.17507962497618</v>
       </c>
       <c r="M22">
-        <v>24.62781728198322</v>
+        <v>10.32489468900652</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.337391387292937</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>24.00713625496745</v>
       </c>
       <c r="P22">
-        <v>13.14293851488656</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.70955393195516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.49375097405675</v>
+      </c>
+      <c r="S22">
+        <v>14.648460658942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.122736923091723</v>
+        <v>4.47897800280094</v>
       </c>
       <c r="D23">
-        <v>10.36386244655718</v>
+        <v>10.62879389260359</v>
       </c>
       <c r="E23">
-        <v>15.15599548944243</v>
+        <v>15.22120421396206</v>
       </c>
       <c r="F23">
-        <v>24.86072598159148</v>
+        <v>23.62034867389742</v>
       </c>
       <c r="G23">
-        <v>26.30515574591345</v>
+        <v>26.87943465713965</v>
       </c>
       <c r="H23">
-        <v>2.92460074492951</v>
+        <v>2.834315465893387</v>
       </c>
       <c r="I23">
-        <v>4.198900725189405</v>
+        <v>4.063672568970388</v>
       </c>
       <c r="J23">
-        <v>9.084191938928278</v>
+        <v>8.299258625394646</v>
       </c>
       <c r="K23">
-        <v>16.05186059213107</v>
+        <v>14.7203789826005</v>
       </c>
       <c r="L23">
-        <v>8.330433694355778</v>
+        <v>12.25534716936147</v>
       </c>
       <c r="M23">
-        <v>24.19861947019765</v>
+        <v>10.20359388608385</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.261515030037748</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.63873332918961</v>
       </c>
       <c r="P23">
-        <v>13.10967697088642</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.61768231692491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13.42097413300397</v>
+      </c>
+      <c r="S23">
+        <v>14.67785268259524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.715874140973305</v>
+        <v>4.159022605776835</v>
       </c>
       <c r="D24">
-        <v>9.766933150277888</v>
+        <v>9.942703863004853</v>
       </c>
       <c r="E24">
-        <v>14.30782758641915</v>
+        <v>14.34783171244038</v>
       </c>
       <c r="F24">
-        <v>23.86013515543008</v>
+        <v>23.0468759085088</v>
       </c>
       <c r="G24">
-        <v>25.11623745776373</v>
+        <v>23.5563842262683</v>
       </c>
       <c r="H24">
-        <v>2.592745156018133</v>
+        <v>2.529632461154817</v>
       </c>
       <c r="I24">
-        <v>3.943549247062323</v>
+        <v>3.85258695269069</v>
       </c>
       <c r="J24">
-        <v>9.004894040790717</v>
+        <v>9.169155365093088</v>
       </c>
       <c r="K24">
-        <v>15.58373940167744</v>
+        <v>14.59477598482032</v>
       </c>
       <c r="L24">
-        <v>8.00812387634676</v>
+        <v>12.473055544277</v>
       </c>
       <c r="M24">
-        <v>22.48238013631031</v>
+        <v>9.628570702531244</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.960438066574209</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>22.09872564588111</v>
       </c>
       <c r="P24">
-        <v>12.99600663523775</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.25337896852459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>13.19494102169682</v>
+      </c>
+      <c r="S24">
+        <v>14.64963331854704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.230959820367433</v>
+        <v>3.864279926394013</v>
       </c>
       <c r="D25">
-        <v>9.084396152045294</v>
+        <v>9.230899707646424</v>
       </c>
       <c r="E25">
-        <v>13.33608232493245</v>
+        <v>13.37398917356325</v>
       </c>
       <c r="F25">
-        <v>22.77116688256729</v>
+        <v>22.12014188321221</v>
       </c>
       <c r="G25">
-        <v>23.83056198619954</v>
+        <v>22.28707484242609</v>
       </c>
       <c r="H25">
-        <v>2.218269630230904</v>
+        <v>2.175261017096093</v>
       </c>
       <c r="I25">
-        <v>3.657223313444899</v>
+        <v>3.605691031365125</v>
       </c>
       <c r="J25">
-        <v>8.932774709365779</v>
+        <v>9.188231518456686</v>
       </c>
       <c r="K25">
-        <v>15.0829887098335</v>
+        <v>14.27135047514852</v>
       </c>
       <c r="L25">
-        <v>7.644505083253353</v>
+        <v>12.57965364151835</v>
       </c>
       <c r="M25">
-        <v>20.46466411766049</v>
+        <v>8.863118495491248</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.609184572832151</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.15434817421164</v>
       </c>
       <c r="P25">
-        <v>12.88409723775347</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.88140956389883</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.0283990898227</v>
+      </c>
+      <c r="S25">
+        <v>14.40260602511791</v>
       </c>
     </row>
   </sheetData>
